--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1206190.56781327</v>
+        <v>1230462.37621979</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111175</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>208.0250417001232</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>196.9826481283071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>68.67434453202569</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>112.3204995519502</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>223.9984498543713</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,7 +1023,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>100.3458530437604</v>
+        <v>100.7709258158959</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,31 +1130,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>30.24678523090115</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>51.87748497259537</v>
+        <v>64.38401073897953</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>273.1385125388354</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>47.74806282379132</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>39.2952677809261</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.06064116356413</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>80.98613666784632</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>273.1385125388354</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>48.98427584501901</v>
+        <v>48.98427584501924</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>39.2952677809261</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.06064116356411</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>56.06257007945327</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
@@ -1901,13 +1901,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>273.1385125388357</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>41.46660291399513</v>
       </c>
       <c r="H18" t="n">
-        <v>76.07967080018497</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>12.58838388982763</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>38.97640474817497</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
-        <v>183.0526180540068</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>17.95817021688029</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>58.12484732748154</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>25.37527508885704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>99.78974769572879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>106.0890042129122</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>61.7684595582232</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>50.64757157172897</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,16 +2397,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>47.09462963797008</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.7777418075379</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2457,13 +2457,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2530,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>73.3617597609376</v>
       </c>
       <c r="V25" t="n">
-        <v>39.19479062707046</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>55.80272329272072</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>85.67417889435382</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2643,10 +2643,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>113.9754347708223</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2688,13 +2688,13 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>167.002901291625</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,13 +2728,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>39.2952677809261</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>145.6674229028287</v>
       </c>
     </row>
     <row r="29">
@@ -2792,19 +2792,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>47.74806282379132</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -2846,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>144.717346329176</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2871,19 +2871,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>127.3343733834986</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>155.5783984036218</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2962,16 +2962,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.67247646141475</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>39.29526778092622</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,22 +3032,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>376.8808099557201</v>
       </c>
       <c r="F32" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>123.7983087353879</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3108,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>26.24406001478074</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>87.30283807112627</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3168,13 +3168,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3244,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>73.36175976093783</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>370.1935458828406</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
@@ -3320,13 +3320,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>137.9214090999342</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3348,22 +3348,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>59.77059529382219</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>113.4883178883723</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>18.12022702288998</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>263.1876011547919</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>168.1815730642571</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3585,19 +3585,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>41.4666029139949</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>113.4883178883723</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>96.06064116356407</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>55.07870608364476</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>86.65804289016231</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>26.69801789530861</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>87.3028380711265</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
@@ -3876,10 +3876,10 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>20.2011370580395</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>99.78974769572879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,16 +3986,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>43.44049423999956</v>
+        <v>42.44128741270575</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>9.996942579404999</v>
+        <v>34.31881265622914</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.6221850809707</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>179.0654404381968</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521.6360070197613</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C2" t="n">
-        <v>278.1872303756613</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D2" t="n">
-        <v>278.1872303756613</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E2" t="n">
-        <v>278.1872303756613</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
         <v>34.73845373156126</v>
@@ -4358,22 +4358,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y2" t="n">
-        <v>765.0847836638613</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C3" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D3" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>340.7491288998418</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>202.0183034824573</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>88.64916789003665</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,46 +4413,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>677.1847609088302</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>677.1847609088302</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>677.1847609088302</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W3" t="n">
-        <v>677.1847609088302</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X3" t="n">
-        <v>677.1847609088302</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y3" t="n">
-        <v>677.1847609088302</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E5" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F5" t="n">
+        <v>713.6628781173328</v>
+      </c>
+      <c r="G5" t="n">
         <v>487.4018176583718</v>
-      </c>
-      <c r="G5" t="n">
-        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
         <v>243.9530410142718</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>588.1108339952409</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>588.1108339952409</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>439.1764243339896</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>279.9389693285341</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4653,13 +4653,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>588.1108339952409</v>
+        <v>525.9467038763287</v>
       </c>
       <c r="X6" t="n">
-        <v>588.1108339952409</v>
+        <v>318.0952036707959</v>
       </c>
       <c r="Y6" t="n">
-        <v>588.1108339952409</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>761.6974622895962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>761.6974622895962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4890,10 +4890,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4911,22 +4911,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>911.6556555383177</v>
+        <v>899.0228012288387</v>
       </c>
       <c r="U9" t="n">
-        <v>911.6556555383177</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="V9" t="n">
-        <v>911.6556555383177</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W9" t="n">
-        <v>668.2068788942177</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>668.2068788942177</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>558.9237552812577</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="C11" t="n">
-        <v>558.9237552812577</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="D11" t="n">
-        <v>558.9237552812577</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="E11" t="n">
-        <v>558.9237552812577</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F11" t="n">
-        <v>558.9237552812577</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G11" t="n">
-        <v>558.9237552812577</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975218</v>
@@ -5063,28 +5063,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V11" t="n">
-        <v>558.9237552812577</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W11" t="n">
-        <v>558.9237552812577</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="X11" t="n">
-        <v>558.9237552812577</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="Y11" t="n">
-        <v>558.9237552812577</v>
+        <v>1574.735921498931</v>
       </c>
     </row>
     <row r="12">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975218</v>
@@ -5221,28 +5221,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C14" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D14" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E14" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F14" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G14" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5300,28 +5300,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214177</v>
+        <v>1541.162109535239</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1343.593509702263</v>
       </c>
       <c r="T14" t="n">
-        <v>1088.658125761969</v>
+        <v>1343.593509702263</v>
       </c>
       <c r="U14" t="n">
-        <v>834.8212426942227</v>
+        <v>1089.756626634517</v>
       </c>
       <c r="V14" t="n">
-        <v>558.9237552812577</v>
+        <v>758.6937392909463</v>
       </c>
       <c r="W14" t="n">
-        <v>558.9237552812577</v>
+        <v>405.9250840208321</v>
       </c>
       <c r="X14" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y14" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M15" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N15" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O15" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5458,28 +5458,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C17" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D17" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E17" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F17" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5534,31 +5534,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q17" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214178</v>
+        <v>1566.337429321495</v>
       </c>
       <c r="S17" t="n">
-        <v>1311.402045381201</v>
+        <v>1566.337429321495</v>
       </c>
       <c r="T17" t="n">
-        <v>1088.658125761969</v>
+        <v>1343.593509702263</v>
       </c>
       <c r="U17" t="n">
-        <v>834.8212426942232</v>
+        <v>1089.756626634517</v>
       </c>
       <c r="V17" t="n">
-        <v>558.9237552812579</v>
+        <v>758.6937392909463</v>
       </c>
       <c r="W17" t="n">
-        <v>558.9237552812579</v>
+        <v>405.9250840208321</v>
       </c>
       <c r="X17" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y17" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>247.7198513240011</v>
+        <v>703.5042351695849</v>
       </c>
       <c r="C18" t="n">
-        <v>247.7198513240011</v>
+        <v>529.051205888458</v>
       </c>
       <c r="D18" t="n">
-        <v>247.7198513240011</v>
+        <v>380.1167962272067</v>
       </c>
       <c r="E18" t="n">
-        <v>247.7198513240011</v>
+        <v>220.8793412217512</v>
       </c>
       <c r="F18" t="n">
-        <v>247.7198513240011</v>
+        <v>74.34478324863616</v>
       </c>
       <c r="G18" t="n">
-        <v>109.3074780831714</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H18" t="n">
         <v>32.45932575975219</v>
@@ -5592,52 +5592,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L18" t="n">
-        <v>256.6067387278474</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M18" t="n">
-        <v>656.0248753321104</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609044</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O18" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q18" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R18" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894784</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577356</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="W18" t="n">
-        <v>455.571351529534</v>
+        <v>1287.33137116014</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240011</v>
+        <v>1079.479870954607</v>
       </c>
       <c r="Y18" t="n">
-        <v>247.7198513240011</v>
+        <v>871.719572189653</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975219</v>
+        <v>45.17486504240637</v>
       </c>
       <c r="J19" t="n">
         <v>32.45932575975219</v>
@@ -5695,28 +5695,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="S19" t="n">
-        <v>321.8764957967128</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="T19" t="n">
-        <v>321.8764957967128</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="U19" t="n">
-        <v>321.8764957967128</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="V19" t="n">
-        <v>321.8764957967128</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687506</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>407.0169899663953</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C20" t="n">
-        <v>407.0169899663953</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D20" t="n">
-        <v>407.0169899663953</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E20" t="n">
-        <v>407.0169899663953</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F20" t="n">
-        <v>407.0169899663953</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G20" t="n">
-        <v>407.0169899663953</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975219</v>
@@ -5756,7 +5756,7 @@
         <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M20" t="n">
         <v>838.8947028941458</v>
@@ -5780,22 +5780,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1146.385485300631</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>1146.385485300631</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W20" t="n">
-        <v>793.6168300305171</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="X20" t="n">
-        <v>793.6168300305171</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="Y20" t="n">
-        <v>793.6168300305171</v>
+        <v>1214.687390136161</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>222.0882603251556</v>
+        <v>651.0967412602795</v>
       </c>
       <c r="C21" t="n">
-        <v>222.0882603251556</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="D21" t="n">
-        <v>222.0882603251556</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E21" t="n">
-        <v>222.0882603251556</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F21" t="n">
-        <v>222.0882603251556</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975219</v>
@@ -5832,22 +5832,22 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>201.1187329501918</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L21" t="n">
-        <v>498.850487931855</v>
+        <v>147.3709770270843</v>
       </c>
       <c r="M21" t="n">
-        <v>898.268624536118</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N21" t="n">
-        <v>1299.952780813051</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O21" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5868,13 +5868,13 @@
         <v>709.8087082577356</v>
       </c>
       <c r="W21" t="n">
-        <v>455.571351529534</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="X21" t="n">
-        <v>247.7198513240011</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="Y21" t="n">
-        <v>222.0882603251556</v>
+        <v>709.8087082577356</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1515.805677671536</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.85170915189684</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C23" t="n">
-        <v>94.85170915189684</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G23" t="n">
         <v>32.45932575975219</v>
@@ -5984,55 +5984,55 @@
         <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975208</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V23" t="n">
-        <v>871.5908811918304</v>
+        <v>1571.807124783843</v>
       </c>
       <c r="W23" t="n">
-        <v>871.5908811918304</v>
+        <v>1219.038469513729</v>
       </c>
       <c r="X23" t="n">
-        <v>871.5908811918304</v>
+        <v>1219.038469513729</v>
       </c>
       <c r="Y23" t="n">
-        <v>481.4515492160186</v>
+        <v>828.8991375379168</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>355.8467647021305</v>
+        <v>534.7360813672205</v>
       </c>
       <c r="C24" t="n">
-        <v>181.3937354210034</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975219</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975219</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F24" t="n">
         <v>32.45932575975219</v>
@@ -6069,13 +6069,13 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L24" t="n">
-        <v>147.3709770270845</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M24" t="n">
-        <v>546.7891136313475</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N24" t="n">
         <v>948.4732699082808</v>
@@ -6090,28 +6090,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1610.059478081005</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1442.557243039171</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1241.654234144665</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U24" t="n">
-        <v>1013.451566682143</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V24" t="n">
-        <v>778.2994584504002</v>
+        <v>910.7117171522425</v>
       </c>
       <c r="W24" t="n">
-        <v>524.0621017221986</v>
+        <v>910.7117171522425</v>
       </c>
       <c r="X24" t="n">
-        <v>524.0621017221986</v>
+        <v>910.7117171522425</v>
       </c>
       <c r="Y24" t="n">
-        <v>524.0621017221986</v>
+        <v>702.9514183872886</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M25" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U25" t="n">
-        <v>72.05002336285366</v>
+        <v>1548.863500350299</v>
       </c>
       <c r="V25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="26">
@@ -6206,34 +6206,34 @@
         <v>390.7250243665027</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6248,25 +6248,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1566.599900823245</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.031300990268</v>
       </c>
       <c r="T26" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="U26" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="V26" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="W26" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="X26" t="n">
-        <v>1536.426713346848</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="Y26" t="n">
         <v>1146.287381371036</v>
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>776.7454794694104</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="C27" t="n">
-        <v>602.2924501882834</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D27" t="n">
-        <v>453.3580405270321</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E27" t="n">
-        <v>294.1205855215766</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F27" t="n">
-        <v>147.5860275484616</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L27" t="n">
-        <v>534.697260562599</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M27" t="n">
-        <v>934.1153971668621</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609044</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O27" t="n">
         <v>1380.722538783602</v>
@@ -6336,19 +6336,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>944.9608164894784</v>
+        <v>1004.47368466753</v>
       </c>
       <c r="V27" t="n">
-        <v>944.9608164894784</v>
+        <v>769.3215764357876</v>
       </c>
       <c r="W27" t="n">
-        <v>944.9608164894784</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="X27" t="n">
-        <v>944.9608164894784</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="Y27" t="n">
-        <v>944.9608164894784</v>
+        <v>515.0842197075859</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>296.5701361642185</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C28" t="n">
-        <v>296.5701361642185</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D28" t="n">
-        <v>296.5701361642185</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E28" t="n">
-        <v>296.5701361642185</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F28" t="n">
-        <v>296.5701361642185</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G28" t="n">
-        <v>296.5701361642185</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H28" t="n">
-        <v>256.8779464865154</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I28" t="n">
-        <v>107.8860696601711</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L28" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M28" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N28" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O28" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y28" t="n">
-        <v>296.5701361642185</v>
+        <v>1475.827476974651</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1124.018495011257</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C29" t="n">
-        <v>755.0559780708455</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D29" t="n">
-        <v>755.0559780708455</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="E29" t="n">
-        <v>369.2677254726013</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F29" t="n">
-        <v>369.2677254726013</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G29" t="n">
         <v>369.2677254726013</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
         <v>519.4894913528326</v>
@@ -6476,37 +6476,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O29" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P29" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U29" t="n">
-        <v>1476.787150281371</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V29" t="n">
-        <v>1476.787150281371</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W29" t="n">
-        <v>1124.018495011257</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X29" t="n">
-        <v>1124.018495011257</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y29" t="n">
-        <v>1124.018495011257</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>790.2393568559521</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="C30" t="n">
-        <v>615.7863275748251</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D30" t="n">
-        <v>466.8519179135739</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E30" t="n">
-        <v>307.6144629081184</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F30" t="n">
-        <v>161.0799049350033</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809358</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L30" t="n">
-        <v>534.697260562599</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M30" t="n">
-        <v>934.1153971668621</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N30" t="n">
-        <v>1335.799553443796</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O30" t="n">
         <v>1380.722538783602</v>
@@ -6564,28 +6564,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1374.066492846507</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U30" t="n">
-        <v>1374.066492846507</v>
+        <v>1264.913381715707</v>
       </c>
       <c r="V30" t="n">
-        <v>1374.066492846507</v>
+        <v>1029.761273483964</v>
       </c>
       <c r="W30" t="n">
-        <v>1374.066492846507</v>
+        <v>775.5239167557625</v>
       </c>
       <c r="X30" t="n">
-        <v>1166.214992640974</v>
+        <v>567.6724165502296</v>
       </c>
       <c r="Y30" t="n">
-        <v>958.4546938760202</v>
+        <v>359.9121177852757</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1518.597632871174</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C31" t="n">
-        <v>1518.597632871174</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D31" t="n">
-        <v>1518.597632871174</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E31" t="n">
-        <v>1518.597632871174</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="F31" t="n">
-        <v>1518.597632871174</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="G31" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H31" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I31" t="n">
-        <v>1369.60575604483</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K31" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L31" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N31" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>1518.597632871174</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>1518.597632871174</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>1518.597632871174</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>1518.597632871174</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.597632871174</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W31" t="n">
-        <v>1518.597632871174</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X31" t="n">
-        <v>1518.597632871174</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y31" t="n">
-        <v>1518.597632871174</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1311.402045381202</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="C32" t="n">
-        <v>1311.402045381202</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="D32" t="n">
-        <v>953.1363467744513</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="E32" t="n">
-        <v>567.348094176207</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F32" t="n">
-        <v>157.5081224621642</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G32" t="n">
-        <v>157.5081224621642</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
-        <v>157.5081224621642</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K32" t="n">
         <v>247.3580469011319</v>
@@ -6716,34 +6716,34 @@
         <v>1396.317581748321</v>
       </c>
       <c r="P32" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
         <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1311.402045381202</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1311.402045381202</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>1311.402045381202</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V32" t="n">
-        <v>1311.402045381202</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W32" t="n">
-        <v>1311.402045381202</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.402045381202</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y32" t="n">
-        <v>1311.402045381202</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>541.5933712376675</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C33" t="n">
-        <v>367.1403419565405</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D33" t="n">
-        <v>218.2059322952892</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E33" t="n">
-        <v>58.96847728983374</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L33" t="n">
-        <v>256.6067387278471</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M33" t="n">
-        <v>656.0248753321101</v>
+        <v>636.3836421851987</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609043</v>
+        <v>1038.067798462132</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1374.066492846507</v>
+        <v>1534.78160306728</v>
       </c>
       <c r="T33" t="n">
-        <v>1173.163483952</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U33" t="n">
-        <v>944.9608164894784</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V33" t="n">
-        <v>709.8087082577356</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W33" t="n">
-        <v>709.8087082577356</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X33" t="n">
-        <v>709.8087082577356</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y33" t="n">
-        <v>709.8087082577356</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C34" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D34" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E34" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F34" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L34" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M34" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N34" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O34" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V34" t="n">
-        <v>361.2466016029501</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="W34" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X34" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>949.343571115571</v>
+        <v>596.0482301975405</v>
       </c>
       <c r="C35" t="n">
-        <v>580.3810541751592</v>
+        <v>596.0482301975405</v>
       </c>
       <c r="D35" t="n">
-        <v>222.1153555684087</v>
+        <v>596.0482301975405</v>
       </c>
       <c r="E35" t="n">
-        <v>222.1153555684087</v>
+        <v>596.0482301975405</v>
       </c>
       <c r="F35" t="n">
-        <v>222.1153555684087</v>
+        <v>596.0482301975405</v>
       </c>
       <c r="G35" t="n">
         <v>222.1153555684087</v>
@@ -6932,16 +6932,16 @@
         <v>222.1153555684087</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
         <v>838.8947028941457</v>
@@ -6959,28 +6959,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T35" t="n">
-        <v>1088.658125761969</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U35" t="n">
-        <v>949.343571115571</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="V35" t="n">
-        <v>949.343571115571</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="W35" t="n">
-        <v>949.343571115571</v>
+        <v>596.0482301975405</v>
       </c>
       <c r="X35" t="n">
-        <v>949.343571115571</v>
+        <v>596.0482301975405</v>
       </c>
       <c r="Y35" t="n">
-        <v>949.343571115571</v>
+        <v>596.0482301975405</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>206.9123550408792</v>
+        <v>970.6990475946959</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975219</v>
+        <v>796.2460183135689</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975219</v>
+        <v>647.3116086523177</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975219</v>
+        <v>488.0741536468622</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975219</v>
+        <v>341.5395956737472</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975219</v>
+        <v>203.1272224329174</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975219</v>
+        <v>92.83366444038066</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N36" t="n">
         <v>948.4732699082806</v>
@@ -7038,28 +7038,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1508.3316234539</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U36" t="n">
-        <v>1280.128955991378</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V36" t="n">
-        <v>1044.976847759636</v>
+        <v>1138.914384614764</v>
       </c>
       <c r="W36" t="n">
-        <v>790.739491031434</v>
+        <v>1138.914384614764</v>
       </c>
       <c r="X36" t="n">
-        <v>582.8879908259012</v>
+        <v>1138.914384614764</v>
       </c>
       <c r="Y36" t="n">
-        <v>375.1276920609473</v>
+        <v>1138.914384614764</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>1461.474148589836</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>1312.482271763492</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N37" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>846.2271159476763</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C38" t="n">
-        <v>846.2271159476763</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D38" t="n">
-        <v>487.9614173409258</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E38" t="n">
-        <v>487.9614173409258</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F38" t="n">
-        <v>487.9614173409258</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G38" t="n">
-        <v>487.9614173409258</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P38" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.96628798761</v>
+        <v>1339.090268381595</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.96628798761</v>
+        <v>1085.253385313849</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.96628798761</v>
+        <v>754.1904979702781</v>
       </c>
       <c r="W38" t="n">
-        <v>1622.96628798761</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="X38" t="n">
-        <v>1622.96628798761</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="Y38" t="n">
-        <v>1232.826956011798</v>
+        <v>401.4218427001639</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>206.9123550408792</v>
+        <v>703.5042351695847</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975219</v>
+        <v>529.0512058884577</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975219</v>
+        <v>380.1167962272065</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975219</v>
+        <v>220.879341221751</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975219</v>
+        <v>74.34478324863593</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975219</v>
+        <v>74.34478324863593</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975219</v>
@@ -7257,16 +7257,16 @@
         <v>61.20822116384404</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497703</v>
+        <v>546.7891136313475</v>
       </c>
       <c r="N39" t="n">
-        <v>1160.042269026704</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O39" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
         <v>1513.730526286846</v>
@@ -7275,28 +7275,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T39" t="n">
-        <v>1508.3316234539</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U39" t="n">
-        <v>1280.128955991378</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V39" t="n">
-        <v>1044.976847759636</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="W39" t="n">
-        <v>790.739491031434</v>
+        <v>1287.331371160139</v>
       </c>
       <c r="X39" t="n">
-        <v>582.8879908259012</v>
+        <v>1079.479870954607</v>
       </c>
       <c r="Y39" t="n">
-        <v>375.1276920609473</v>
+        <v>871.7195721896528</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L40" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N40" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>1391.209962814678</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="V40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="W40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.45932575975219</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C41" t="n">
-        <v>32.45932575975219</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D41" t="n">
         <v>32.45932575975219</v>
@@ -7409,16 +7409,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7433,28 +7433,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1567.331231337463</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1567.331231337463</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1344.587311718231</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>1090.750428650485</v>
       </c>
       <c r="V41" t="n">
-        <v>1535.43291133088</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="W41" t="n">
-        <v>1182.664256060766</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="X41" t="n">
-        <v>809.1984977996857</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="Y41" t="n">
-        <v>419.059165823874</v>
+        <v>759.6875413069145</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32.45932575975219</v>
+        <v>529.3490175189916</v>
       </c>
       <c r="C42" t="n">
-        <v>32.45932575975219</v>
+        <v>354.8959882378646</v>
       </c>
       <c r="D42" t="n">
-        <v>32.45932575975219</v>
+        <v>205.9615785766133</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975219</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F42" t="n">
         <v>32.45932575975219</v>
@@ -7488,22 +7488,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1910807414154</v>
+        <v>498.850487931855</v>
       </c>
       <c r="M42" t="n">
-        <v>729.6092173456784</v>
+        <v>898.268624536118</v>
       </c>
       <c r="N42" t="n">
-        <v>1057.709031609043</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O42" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P42" t="n">
         <v>1622.966287987609</v>
@@ -7512,28 +7512,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1534.78160306728</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1333.878594172773</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>1105.675926710251</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V42" t="n">
-        <v>870.5238184785085</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="W42" t="n">
-        <v>616.2864617503069</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="X42" t="n">
-        <v>408.4349615447741</v>
+        <v>737.1093162839455</v>
       </c>
       <c r="Y42" t="n">
-        <v>200.6746627798202</v>
+        <v>529.3490175189916</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F43" t="n">
-        <v>32.45932575975219</v>
+        <v>214.3566541050398</v>
       </c>
       <c r="G43" t="n">
-        <v>32.45932575975219</v>
+        <v>214.3566541050398</v>
       </c>
       <c r="H43" t="n">
-        <v>32.45932575975219</v>
+        <v>52.86451470726684</v>
       </c>
       <c r="I43" t="n">
         <v>32.45932575975219</v>
@@ -7570,7 +7570,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L43" t="n">
         <v>107.0302722280248</v>
@@ -7609,10 +7609,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>133.2570507049328</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1188.947668900687</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="C44" t="n">
-        <v>1188.947668900687</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D44" t="n">
-        <v>1188.947668900687</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E44" t="n">
-        <v>1188.947668900687</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1076971866441</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G44" t="n">
-        <v>369.2677254726013</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H44" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
@@ -7649,10 +7649,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M44" t="n">
         <v>838.8947028941457</v>
@@ -7661,37 +7661,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P44" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q44" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1579.087000876499</v>
+        <v>1580.096300702048</v>
       </c>
       <c r="S44" t="n">
-        <v>1579.087000876499</v>
+        <v>1382.527700869072</v>
       </c>
       <c r="T44" t="n">
-        <v>1579.087000876499</v>
+        <v>1159.783781249839</v>
       </c>
       <c r="U44" t="n">
-        <v>1579.087000876499</v>
+        <v>905.9468981820935</v>
       </c>
       <c r="V44" t="n">
-        <v>1579.087000876499</v>
+        <v>574.8840108385228</v>
       </c>
       <c r="W44" t="n">
-        <v>1579.087000876499</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="X44" t="n">
-        <v>1579.087000876499</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="Y44" t="n">
-        <v>1188.947668900687</v>
+        <v>222.1153555684087</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>501.9572080522028</v>
+        <v>549.7496870371103</v>
       </c>
       <c r="C45" t="n">
-        <v>327.5041787710758</v>
+        <v>375.2966577559833</v>
       </c>
       <c r="D45" t="n">
-        <v>327.5041787710758</v>
+        <v>226.3622480947321</v>
       </c>
       <c r="E45" t="n">
-        <v>327.5041787710758</v>
+        <v>67.12479308927658</v>
       </c>
       <c r="F45" t="n">
-        <v>180.9696207979607</v>
+        <v>67.12479308927658</v>
       </c>
       <c r="G45" t="n">
-        <v>42.55724755713098</v>
+        <v>67.12479308927658</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975219</v>
@@ -7749,28 +7749,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894784</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V45" t="n">
-        <v>709.8087082577356</v>
+        <v>1387.814179755867</v>
       </c>
       <c r="W45" t="n">
-        <v>709.8087082577356</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="X45" t="n">
-        <v>501.9572080522028</v>
+        <v>925.7253228221323</v>
       </c>
       <c r="Y45" t="n">
-        <v>501.9572080522028</v>
+        <v>717.9650240571784</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="C46" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="D46" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="E46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G46" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H46" t="n">
         <v>32.45932575975219</v>
@@ -7834,22 +7834,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304796</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
-        <v>296.5127271079359</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574524</v>
       </c>
       <c r="Q18" t="n">
         <v>99.73813450275541</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>228.2563757694029</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878804</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,10 +9963,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>174.18790452568</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>290.4954127942447</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10200,16 +10200,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O30" t="n">
-        <v>112.9628022719294</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>296.5127271079357</v>
+        <v>70.10119885733472</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>303.3627954849604</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>241.3813618149009</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10905,7 +10905,7 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878806</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>104.7567089243584</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.800181262745</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>334.6314840602834</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>380.7598033349562</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23264,19 +23264,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,22 +23303,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>54.61374593129955</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>301.4929058936217</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23431,13 +23431,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>120.5819502228691</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082892</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23510,10 +23510,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,25 +23540,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>31.86954967785113</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>54.61374593129955</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23634,7 +23634,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>202.7107073159006</v>
+        <v>202.7107073159004</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23668,13 +23668,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>120.5819502228691</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23747,10 +23747,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>56.79311626624418</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,13 +23789,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>54.61374593129921</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23808,25 +23808,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>95.56164659442632</v>
       </c>
       <c r="H18" t="n">
-        <v>33.11095161242639</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -23859,16 +23859,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23908,10 +23908,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I19" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>74.67247646141476</v>
+        <v>62.08409257158713</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>180.4339941236784</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23975,19 +23975,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H20" t="n">
-        <v>150.3876976617138</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,22 +24020,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>331.2827985005327</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>108.4083363223858</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24108,13 +24108,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>180.3074206884473</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24145,10 +24145,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
-        <v>147.5019580580808</v>
+        <v>47.71221036235197</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24169,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R22" t="n">
-        <v>59.3200569239453</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
         <v>226.8162656893113</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24209,7 +24209,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>292.9145820624598</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24254,19 +24254,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>277.1046868984059</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,16 +24285,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>125.6138693503457</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>67.80584269073762</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,13 +24345,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24418,10 +24418,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>212.9428526967579</v>
       </c>
       <c r="V25" t="n">
-        <v>212.9428526967575</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24488,13 +24488,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>57.05296305297673</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>284.0569217841152</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24531,10 +24531,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>23.05281473759915</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
@@ -24576,13 +24576,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>58.91773949627159</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,13 +24616,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>120.5819502228691</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
         <v>165.4090611368575</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>72.9172304492661</v>
       </c>
     </row>
     <row r="29">
@@ -24680,19 +24680,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>306.9349787968916</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24734,13 +24734,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>106.5811679078924</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24759,19 +24759,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>9.693876124922852</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
         <v>109.1906224126114</v>
@@ -24804,22 +24804,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>70.34224238427481</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>128.7502647990354</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,10 +24880,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>126.1137933559313</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
         <v>219.4103988718534</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24920,22 +24920,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>5.049560116541727</v>
       </c>
       <c r="F32" t="n">
-        <v>1.1344737448091</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>63.96116077518199</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
         <v>220.5164804230398</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24996,16 +24996,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>118.8251523786031</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0282495084215</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>78.52437462028948</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25056,13 +25056,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>128.7502647990354</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
@@ -25096,7 +25096,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
         <v>165.4090611368575</v>
@@ -25132,10 +25132,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>213.1612385756532</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,10 +25154,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>44.51995824769335</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25208,13 +25208,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>113.3771051371342</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25236,22 +25236,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>18.77142751331585</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>85.40566091718938</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25327,13 +25327,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J37" t="n">
-        <v>56.55224943852477</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,10 +25354,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>219.4103988718534</v>
@@ -25366,7 +25366,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>126.2142705097871</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,10 +25406,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>70.25271456092867</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>52.33490735878274</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25473,19 +25473,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>67.72401949861646</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25515,19 +25515,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>85.40566091718938</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25570,7 +25570,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,13 +25591,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>123.3497577082893</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>180.4339941236784</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>57.77698026205269</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0942155799726</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>130.9470625600923</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>78.52437462028925</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25764,10 +25764,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25795,19 +25795,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>127.3008210000413</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
         <v>165.4090611368575</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>118.794905656366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25874,16 +25874,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25910,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.41519210569788</v>
+        <v>70.41439893299169</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25941,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>99.19367983320636</v>
+        <v>74.87180975638222</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>2.104484466239683</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
         <v>147.5019580580808</v>
@@ -26074,7 +26074,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>47.75082525111449</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519116.0846301698</v>
+        <v>519116.0846301697</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>519116.0846301692</v>
+        <v>519116.0846301698</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>519116.0846301697</v>
+        <v>519116.0846301693</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>519116.0846301694</v>
+        <v>519116.0846301696</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>519116.0846301698</v>
+        <v>519116.0846301692</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>519116.0846301698</v>
+        <v>519116.0846301696</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>519116.0846301694</v>
+        <v>519116.0846301698</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519116.0846301698</v>
+        <v>519116.0846301697</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26314,28 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
         <v>245673.2316242975</v>
       </c>
       <c r="F2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242974</v>
       </c>
       <c r="G2" t="n">
         <v>245673.2316242975</v>
       </c>
       <c r="H2" t="n">
+        <v>245673.2316242976</v>
+      </c>
+      <c r="I2" t="n">
         <v>245673.2316242975</v>
       </c>
-      <c r="I2" t="n">
-        <v>245673.2316242976</v>
-      </c>
       <c r="J2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242975</v>
       </c>
       <c r="K2" t="n">
         <v>245673.2316242976</v>
@@ -26344,13 +26344,13 @@
         <v>245673.2316242975</v>
       </c>
       <c r="M2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242975</v>
       </c>
       <c r="N2" t="n">
-        <v>245673.2316242975</v>
+        <v>245673.2316242974</v>
       </c>
       <c r="O2" t="n">
-        <v>245673.2316242977</v>
+        <v>245673.2316242974</v>
       </c>
       <c r="P2" t="n">
         <v>245673.2316242975</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910625</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244789</v>
+        <v>41050.6978624479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298720.6125198924</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="C4" t="n">
-        <v>298720.6125198924</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>298720.6125198924</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="F4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="G4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="H4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.1352313926</v>
       </c>
       <c r="I4" t="n">
-        <v>20314.86901713244</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="J4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="K4" t="n">
-        <v>20314.86901713244</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="L4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.1352313926</v>
       </c>
       <c r="M4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="N4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.1352313926</v>
       </c>
       <c r="O4" t="n">
-        <v>20314.86901713244</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="P4" t="n">
-        <v>20314.86901713244</v>
+        <v>17394.13523139261</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375757</v>
@@ -26491,16 +26491,16 @@
         <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375757</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44327.70485676116</v>
+        <v>47188.10010121333</v>
       </c>
       <c r="C6" t="n">
-        <v>125097.1363883088</v>
+        <v>127957.5316327612</v>
       </c>
       <c r="D6" t="n">
-        <v>125097.1363883088</v>
+        <v>127957.5316327611</v>
       </c>
       <c r="E6" t="n">
-        <v>30553.83956816075</v>
+        <v>33474.57335390062</v>
       </c>
       <c r="F6" t="n">
-        <v>197494.0096934076</v>
+        <v>200414.7434791473</v>
       </c>
       <c r="G6" t="n">
-        <v>197494.0096934075</v>
+        <v>200414.7434791473</v>
       </c>
       <c r="H6" t="n">
-        <v>197494.0096934075</v>
+        <v>200414.7434791474</v>
       </c>
       <c r="I6" t="n">
-        <v>197494.0096934076</v>
+        <v>200414.7434791474</v>
       </c>
       <c r="J6" t="n">
-        <v>134434.0670943013</v>
+        <v>137354.8008800411</v>
       </c>
       <c r="K6" t="n">
-        <v>197494.0096934076</v>
+        <v>200414.7434791474</v>
       </c>
       <c r="L6" t="n">
-        <v>197494.0096934075</v>
+        <v>200414.7434791473</v>
       </c>
       <c r="M6" t="n">
-        <v>156443.3118309597</v>
+        <v>159364.0456166994</v>
       </c>
       <c r="N6" t="n">
-        <v>197494.0096934075</v>
+        <v>200414.7434791473</v>
       </c>
       <c r="O6" t="n">
-        <v>197494.0096934076</v>
+        <v>200414.7434791473</v>
       </c>
       <c r="P6" t="n">
-        <v>197494.0096934075</v>
+        <v>200414.7434791474</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26753,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="I3" t="n">
         <v>146.571804419537</v>
@@ -26762,19 +26762,19 @@
         <v>146.571804419537</v>
       </c>
       <c r="K3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="L3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="M3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="N3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="O3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="P3" t="n">
         <v>146.5718044195371</v>
@@ -26802,7 +26802,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H4" t="n">
         <v>405.7415719969023</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>174.7087999633573</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27430,22 +27430,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>189.2552905277465</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27476,10 +27476,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.72228831938939</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>87.84422914287144</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27555,13 +27555,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>311.7191632230924</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>191.3042876607637</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27670,7 +27670,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27752,16 +27752,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>151.3491301171592</v>
+        <v>150.9240573450237</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,31 +27850,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>174.9274946967227</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>351.6835848413606</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27938,19 +27938,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,22 +27983,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>148.2872437222262</v>
+        <v>135.7807179558421</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>46.33425578299912</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>242.2195147380239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
@@ -32485,16 +32485,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
@@ -32503,7 +32503,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,40 +32622,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O22" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H29" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I29" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J29" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K29" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L29" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M29" t="n">
         <v>103.4642265438474</v>
@@ -33196,16 +33196,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O29" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P29" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R29" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S29" t="n">
         <v>13.4271557515988</v>
@@ -33214,7 +33214,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,46 +33254,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H30" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I30" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J30" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K30" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L30" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M30" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N30" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O30" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P30" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R30" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S30" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T30" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,40 +33333,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H31" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I31" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J31" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K31" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L31" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M31" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N31" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O31" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P31" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R31" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S31" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T31" t="n">
         <v>1.129323738970203</v>
@@ -33409,22 +33409,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H32" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I32" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J32" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K32" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L32" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M32" t="n">
         <v>103.4642265438474</v>
@@ -33433,16 +33433,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O32" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P32" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R32" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S32" t="n">
         <v>13.4271557515988</v>
@@ -33451,7 +33451,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,46 +33491,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H33" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I33" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J33" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K33" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L33" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M33" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N33" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O33" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P33" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R33" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S33" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T33" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,40 +33570,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H34" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I34" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J34" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K34" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L34" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M34" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N34" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O34" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P34" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R34" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S34" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T34" t="n">
         <v>1.129323738970203</v>
@@ -33646,22 +33646,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H35" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I35" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J35" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K35" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L35" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M35" t="n">
         <v>103.4642265438474</v>
@@ -33670,16 +33670,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O35" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P35" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R35" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S35" t="n">
         <v>13.4271557515988</v>
@@ -33688,7 +33688,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,46 +33728,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H36" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I36" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J36" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K36" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L36" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M36" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N36" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O36" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P36" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R36" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S36" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T36" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,40 +33807,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H37" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I37" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J37" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K37" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L37" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M37" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N37" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O37" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P37" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R37" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S37" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T37" t="n">
         <v>1.129323738970203</v>
@@ -33883,22 +33883,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I38" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
@@ -33907,16 +33907,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S38" t="n">
         <v>13.4271557515988</v>
@@ -33925,7 +33925,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33965,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M39" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,40 +34044,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I40" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M40" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O40" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34120,22 +34120,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H41" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I41" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J41" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K41" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L41" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M41" t="n">
         <v>103.4642265438474</v>
@@ -34144,16 +34144,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O41" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P41" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R41" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S41" t="n">
         <v>13.4271557515988</v>
@@ -34162,7 +34162,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,46 +34202,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H42" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I42" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J42" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K42" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L42" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M42" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N42" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O42" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P42" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R42" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S42" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T42" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,40 +34281,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H43" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I43" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J43" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K43" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L43" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M43" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N43" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O43" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P43" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R43" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S43" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T43" t="n">
         <v>1.129323738970203</v>
@@ -34781,22 +34781,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35258,13 +35258,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35726,16 +35726,16 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35744,7 +35744,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>226.4115282506012</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>141.3237492791392</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
@@ -36139,7 +36139,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>141.3237492791391</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054569</v>
       </c>
       <c r="M21" t="n">
         <v>403.4526632366293</v>
@@ -36215,10 +36215,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L22" t="n">
         <v>66.88568574354744</v>
@@ -36291,10 +36291,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
-        <v>87.03308673054592</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36674,7 +36674,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
@@ -36683,10 +36683,10 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>124.8420549921026</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>326.276269873291</v>
+        <v>222.9093633908061</v>
       </c>
       <c r="P27" t="n">
         <v>244.6906557616239</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K29" t="n">
         <v>179.0082576726433</v>
@@ -36850,7 +36850,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36920,13 +36920,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O30" t="n">
-        <v>45.37675286849093</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L31" t="n">
         <v>66.88568574354744</v>
@@ -37002,10 +37002,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O31" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P31" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K32" t="n">
         <v>179.0082576726433</v>
@@ -37087,7 +37087,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L33" t="n">
-        <v>226.411528250601</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
@@ -37160,13 +37160,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O33" t="n">
-        <v>326.276269873291</v>
+        <v>235.7767460815218</v>
       </c>
       <c r="P33" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L34" t="n">
         <v>66.88568574354744</v>
@@ -37239,10 +37239,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O34" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P34" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K35" t="n">
         <v>179.0082576726433</v>
@@ -37324,7 +37324,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
@@ -37394,13 +37394,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>192.0355122813236</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
         <v>110.3391532330937</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L37" t="n">
         <v>66.88568574354744</v>
@@ -37476,10 +37476,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O37" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P37" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167957</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
@@ -37561,7 +37561,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054592</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366293</v>
@@ -37637,7 +37637,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>30.98459604604517</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
         <v>110.3391532330937</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L40" t="n">
         <v>66.88568574354744</v>
@@ -37713,10 +37713,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
@@ -37792,13 +37792,13 @@
         <v>313.0722467132387</v>
       </c>
       <c r="O41" t="n">
-        <v>249.9811662707759</v>
+        <v>249.9811662707763</v>
       </c>
       <c r="P41" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L42" t="n">
-        <v>300.7391464461244</v>
+        <v>264.5302852029487</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>331.4139538013789</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.690655761624</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L43" t="n">
         <v>66.88568574354744</v>
@@ -37950,10 +37950,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O43" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P43" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680266</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1230462.37621979</v>
+        <v>1247107.495523479</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111175</v>
+        <v>713587.7684111178</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7336969.210339786</v>
+        <v>7336969.210339788</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C2" t="n">
         <v>208.0250417001232</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>68.67434453202569</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>200.9287599685392</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>223.9984498543713</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>183.4693513325733</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,19 +1025,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>103.8399091482598</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>100.7709258158959</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>178.1573130319831</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>30.24678523090115</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,13 +1150,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>137.0424786983366</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1263,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>64.38401073897953</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="J10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>235.2541214638558</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>47.74806282379132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>127.7771805297262</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>48.98427584501901</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>39.2952677809261</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356413</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>80.98613666784632</v>
+        <v>22.50045648192799</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
@@ -1664,7 +1666,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1686,22 +1688,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>48.70658777605028</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>78.54202280713804</v>
@@ -1734,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>48.98427584501924</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.3249685652704</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356411</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>56.06257007945327</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>141.6396260835078</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1920,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>41.46660291399513</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>7.42522453130207</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,16 +1973,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2023,7 +2025,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>12.58838388982763</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>103.3249685652704</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2081,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>70.62611983656755</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>17.95817021688029</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>58.12484732748154</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>77.67842534509543</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
@@ -2214,16 +2216,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>99.78974769572879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>50.64757157172897</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>47.09462963797008</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>203.2278494773514</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2491,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>90.94970861955598</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>73.3617597609376</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>55.80272329272072</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
@@ -2609,16 +2611,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2643,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>9.023979076212363</v>
       </c>
       <c r="S27" t="n">
         <v>165.8272126914158</v>
@@ -2688,19 +2690,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>167.002901291625</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>145.6674229028287</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>145.6674229028287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>47.74806282379132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.98174747814602</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2871,7 +2873,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,10 +2882,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>75.88546014257555</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>155.5783984036218</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>106.9147497326712</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>376.8808099557201</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>405.7415719969023</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>65.63538946317004</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3193,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>11.33877089098639</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>73.36175976093783</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>370.1935458828406</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>108.5147100759117</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3354,16 +3356,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>34.31881265622893</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>59.77059529382219</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>99.78974769572881</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3548,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>168.1815730642571</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>145.1437230760811</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3585,19 +3587,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>41.4666029139949</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,22 +3632,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>99.87716788449325</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>98.68313739545468</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3785,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.07870608364476</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>89.98174747814579</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3825,7 +3827,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>26.69801789530861</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3834,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,19 +3869,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>89.9210609567845</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>20.2011370580395</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>42.44128741270575</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>20.05209876101992</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -4065,16 +4067,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>34.31881265622914</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>15.13518083054801</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4141,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>179.0654404381968</v>
+        <v>157.7727335375556</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4364,16 +4366,16 @@
         <v>738.7078125165641</v>
       </c>
       <c r="V2" t="n">
-        <v>495.259035872464</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W2" t="n">
-        <v>495.259035872464</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X2" t="n">
-        <v>251.810259228364</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y2" t="n">
-        <v>251.810259228364</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>487.2836868729568</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>487.2836868729568</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>487.2836868729568</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>487.2836868729568</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>340.7491288998418</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>202.0183034824573</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>88.64916789003665</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>525.9467038763287</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>318.0952036707959</v>
       </c>
       <c r="Y3" t="n">
-        <v>487.2836868729568</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E5" t="n">
-        <v>720.6083788665362</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F5" t="n">
-        <v>713.6628781173328</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>768.6429630387997</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>584.5814843947364</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>584.5814843947364</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>584.5814843947364</v>
       </c>
       <c r="W6" t="n">
-        <v>525.9467038763287</v>
+        <v>584.5814843947364</v>
       </c>
       <c r="X6" t="n">
-        <v>318.0952036707959</v>
+        <v>376.7299841892036</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>285.1327311248648</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>278.1872303756613</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
         <v>20.03527576299844</v>
@@ -4893,7 +4895,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4911,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>899.0228012288387</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>670.7991829652278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>435.6470747334852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1574.735921498931</v>
+        <v>459.7457812894752</v>
       </c>
       <c r="C11" t="n">
-        <v>1574.735921498931</v>
+        <v>459.7457812894752</v>
       </c>
       <c r="D11" t="n">
-        <v>1574.735921498931</v>
+        <v>459.7457812894752</v>
       </c>
       <c r="E11" t="n">
-        <v>1188.947668900687</v>
+        <v>459.7457812894752</v>
       </c>
       <c r="F11" t="n">
-        <v>779.107697186644</v>
+        <v>459.7457812894752</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2677254726013</v>
+        <v>459.7457812894752</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U11" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V11" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W11" t="n">
-        <v>1574.735921498931</v>
+        <v>849.8851132652869</v>
       </c>
       <c r="X11" t="n">
-        <v>1574.735921498931</v>
+        <v>849.8851132652869</v>
       </c>
       <c r="Y11" t="n">
-        <v>1574.735921498931</v>
+        <v>459.7457812894752</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.6600854869342</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="C12" t="n">
-        <v>815.2070562058072</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H12" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313474</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082806</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O12" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U12" t="n">
-        <v>1622.966287987609</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V12" t="n">
-        <v>1622.966287987609</v>
+        <v>910.7117171522427</v>
       </c>
       <c r="W12" t="n">
-        <v>1573.487221477489</v>
+        <v>656.4743604240412</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.635721271956</v>
+        <v>448.6228602185083</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.875422507002</v>
+        <v>240.8625614535544</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5221,28 +5223,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
     </row>
     <row r="14">
@@ -5279,10 +5281,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M14" t="n">
         <v>838.8947028941458</v>
@@ -5291,34 +5293,34 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R14" t="n">
-        <v>1541.162109535239</v>
+        <v>1600.23855416748</v>
       </c>
       <c r="S14" t="n">
-        <v>1343.593509702263</v>
+        <v>1402.669954334504</v>
       </c>
       <c r="T14" t="n">
-        <v>1343.593509702263</v>
+        <v>1402.669954334504</v>
       </c>
       <c r="U14" t="n">
-        <v>1089.756626634517</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="V14" t="n">
-        <v>758.6937392909463</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W14" t="n">
-        <v>405.9250840208321</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X14" t="n">
-        <v>32.45932575975219</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y14" t="n">
         <v>32.45932575975219</v>
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.6600854869342</v>
+        <v>160.9932758437808</v>
       </c>
       <c r="C15" t="n">
-        <v>815.2070562058072</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H15" t="n">
         <v>111.7947023326189</v>
@@ -5367,40 +5369,40 @@
         <v>934.1153971668621</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082808</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O15" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U15" t="n">
-        <v>1622.966287987609</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V15" t="n">
-        <v>1622.966287987609</v>
+        <v>791.2062683570043</v>
       </c>
       <c r="W15" t="n">
-        <v>1573.487221477489</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="X15" t="n">
-        <v>1365.635721271956</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.875422507002</v>
+        <v>329.2086128638488</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
         <v>32.45932575975219</v>
@@ -5455,31 +5457,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="17">
@@ -5522,7 +5524,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5534,28 +5536,28 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q17" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1566.337429321495</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1566.337429321495</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1343.593509702263</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1089.756626634517</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="V17" t="n">
-        <v>758.6937392909463</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W17" t="n">
-        <v>405.9250840208321</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X17" t="n">
-        <v>32.45932575975219</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y17" t="n">
         <v>32.45932575975219</v>
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>703.5042351695849</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="C18" t="n">
-        <v>529.051205888458</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="D18" t="n">
-        <v>380.1167962272067</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="E18" t="n">
-        <v>220.8793412217512</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="F18" t="n">
-        <v>74.34478324863616</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975219</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="H18" t="n">
         <v>32.45932575975219</v>
@@ -5595,49 +5597,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K18" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9399761455072</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="M18" t="n">
-        <v>758.3581127497703</v>
+        <v>636.3836421851988</v>
       </c>
       <c r="N18" t="n">
-        <v>1160.042269026704</v>
+        <v>1038.067798462132</v>
       </c>
       <c r="O18" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1541.568727888341</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V18" t="n">
-        <v>1541.568727888341</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W18" t="n">
-        <v>1287.33137116014</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X18" t="n">
-        <v>1079.479870954607</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y18" t="n">
-        <v>871.719572189653</v>
+        <v>39.95955255904721</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="C19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="D19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="E19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="F19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="G19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="H19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I19" t="n">
-        <v>45.17486504240637</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J19" t="n">
         <v>32.45932575975219</v>
@@ -5695,28 +5697,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="S19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="T19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="U19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="V19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="W19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="X19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="Y19" t="n">
-        <v>194.1667418687506</v>
+        <v>256.8779464865154</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>828.0875500720392</v>
+        <v>472.7613576865958</v>
       </c>
       <c r="C20" t="n">
-        <v>828.0875500720392</v>
+        <v>103.7988407461841</v>
       </c>
       <c r="D20" t="n">
-        <v>828.0875500720392</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E20" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F20" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
         <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5789,13 +5791,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W20" t="n">
-        <v>1604.826722111973</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X20" t="n">
-        <v>1604.826722111973</v>
+        <v>1249.500529726529</v>
       </c>
       <c r="Y20" t="n">
-        <v>1214.687390136161</v>
+        <v>859.3611977507176</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651.0967412602795</v>
+        <v>800.0311509215306</v>
       </c>
       <c r="C21" t="n">
-        <v>476.6437119791524</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D21" t="n">
         <v>476.6437119791524</v>
@@ -5820,61 +5822,61 @@
         <v>170.8716990005819</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L21" t="n">
-        <v>147.3709770270843</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M21" t="n">
-        <v>546.7891136313473</v>
+        <v>636.3836421851987</v>
       </c>
       <c r="N21" t="n">
-        <v>948.4732699082806</v>
+        <v>1038.067798462132</v>
       </c>
       <c r="O21" t="n">
-        <v>1271.486777082839</v>
+        <v>1361.08130563669</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1603.325054840698</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1544.503232083472</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1377.000997041638</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1176.097988147131</v>
       </c>
       <c r="U21" t="n">
-        <v>944.9608164894784</v>
+        <v>1176.097988147131</v>
       </c>
       <c r="V21" t="n">
-        <v>709.8087082577356</v>
+        <v>1176.097988147131</v>
       </c>
       <c r="W21" t="n">
-        <v>709.8087082577356</v>
+        <v>1176.097988147131</v>
       </c>
       <c r="X21" t="n">
-        <v>709.8087082577356</v>
+        <v>968.2464879415986</v>
       </c>
       <c r="Y21" t="n">
-        <v>709.8087082577356</v>
+        <v>968.2464879415986</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.2570507049328</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C22" t="n">
-        <v>133.2570507049328</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D22" t="n">
-        <v>133.2570507049328</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E22" t="n">
-        <v>133.2570507049328</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F22" t="n">
-        <v>133.2570507049328</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G22" t="n">
-        <v>133.2570507049328</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H22" t="n">
-        <v>133.2570507049328</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M22" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N22" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>1583.596182181372</v>
       </c>
       <c r="W22" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X22" t="n">
-        <v>133.2570507049328</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.2570507049328</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C23" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D23" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E23" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F23" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G23" t="n">
         <v>32.45932575975219</v>
@@ -5984,19 +5986,19 @@
         <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975208</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6011,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V23" t="n">
-        <v>1571.807124783843</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W23" t="n">
-        <v>1219.038469513729</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="X23" t="n">
-        <v>1219.038469513729</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y23" t="n">
-        <v>828.8991375379168</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>534.7360813672205</v>
+        <v>512.6843680194497</v>
       </c>
       <c r="C24" t="n">
-        <v>487.165748399574</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="D24" t="n">
         <v>338.2313387383227</v>
@@ -6075,43 +6077,43 @@
         <v>534.697260562599</v>
       </c>
       <c r="M24" t="n">
-        <v>934.1153971668621</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N24" t="n">
-        <v>948.4732699082808</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O24" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U24" t="n">
-        <v>1145.863825383985</v>
+        <v>1417.685631949881</v>
       </c>
       <c r="V24" t="n">
-        <v>910.7117171522425</v>
+        <v>1182.533523718138</v>
       </c>
       <c r="W24" t="n">
-        <v>910.7117171522425</v>
+        <v>928.2961669899364</v>
       </c>
       <c r="X24" t="n">
-        <v>910.7117171522425</v>
+        <v>720.4446667844036</v>
       </c>
       <c r="Y24" t="n">
-        <v>702.9514183872886</v>
+        <v>512.6843680194497</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H25" t="n">
-        <v>1294.179012144412</v>
+        <v>199.7544622051772</v>
       </c>
       <c r="I25" t="n">
-        <v>1294.179012144412</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L25" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M25" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N25" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>1548.863500350299</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>759.6875413069145</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C26" t="n">
-        <v>390.7250243665027</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D26" t="n">
         <v>32.45932575975218</v>
@@ -6248,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1566.599900823245</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S26" t="n">
-        <v>1369.031300990268</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T26" t="n">
-        <v>1146.287381371036</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U26" t="n">
-        <v>1146.287381371036</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V26" t="n">
-        <v>1146.287381371036</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W26" t="n">
-        <v>1146.287381371036</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X26" t="n">
-        <v>1146.287381371036</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y26" t="n">
-        <v>1146.287381371036</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>515.0842197075859</v>
+        <v>661.618777680701</v>
       </c>
       <c r="C27" t="n">
-        <v>340.6311904264589</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D27" t="n">
-        <v>191.6967807652077</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975218</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F27" t="n">
         <v>32.45932575975218</v>
@@ -6309,13 +6311,13 @@
         <v>61.20822116384403</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M27" t="n">
-        <v>758.3581127497703</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N27" t="n">
-        <v>1160.042269026703</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
         <v>1380.722538783602</v>
@@ -6327,28 +6329,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1613.851157607597</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1446.348922565762</v>
       </c>
       <c r="T27" t="n">
-        <v>1173.163483952</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="U27" t="n">
-        <v>1004.47368466753</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="V27" t="n">
-        <v>769.3215764357876</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="W27" t="n">
-        <v>515.0842197075859</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="X27" t="n">
-        <v>515.0842197075859</v>
+        <v>1037.594413465723</v>
       </c>
       <c r="Y27" t="n">
-        <v>515.0842197075859</v>
+        <v>829.8341147007691</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1294.179012144411</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="C28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>1475.827476974651</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1622.966287987609</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C29" t="n">
-        <v>1622.966287987609</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D29" t="n">
-        <v>1574.735921498931</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E29" t="n">
-        <v>1188.947668900687</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F29" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G29" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
         <v>32.45932575975218</v>
@@ -6461,10 +6463,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L29" t="n">
         <v>519.4894913528326</v>
@@ -6476,37 +6478,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O29" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P29" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.966287987609</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.966287987609</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.966287987609</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.966287987609</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="Y29" t="n">
-        <v>1622.966287987609</v>
+        <v>1532.07563396928</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>191.6967807652077</v>
+        <v>589.3363479614452</v>
       </c>
       <c r="C30" t="n">
-        <v>191.6967807652077</v>
+        <v>414.8833186803182</v>
       </c>
       <c r="D30" t="n">
-        <v>191.6967807652077</v>
+        <v>414.8833186803182</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975218</v>
+        <v>255.6458636748627</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975218</v>
+        <v>109.1113057017477</v>
       </c>
       <c r="G30" t="n">
         <v>32.45932575975218</v>
@@ -6546,10 +6548,10 @@
         <v>236.9655055809357</v>
       </c>
       <c r="L30" t="n">
-        <v>534.6972605625989</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M30" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N30" t="n">
         <v>1057.709031609043</v>
@@ -6564,28 +6566,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T30" t="n">
-        <v>1422.063279093102</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U30" t="n">
-        <v>1264.913381715707</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V30" t="n">
-        <v>1029.761273483964</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W30" t="n">
-        <v>775.5239167557625</v>
+        <v>1173.163483952</v>
       </c>
       <c r="X30" t="n">
-        <v>567.6724165502296</v>
+        <v>965.3119837464671</v>
       </c>
       <c r="Y30" t="n">
-        <v>359.9121177852757</v>
+        <v>757.5516849815133</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C31" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D31" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E31" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F31" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N31" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W31" t="n">
-        <v>71.82943156598952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X31" t="n">
-        <v>71.82943156598952</v>
+        <v>1514.971591287941</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1232.826956011797</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C32" t="n">
-        <v>1232.826956011797</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D32" t="n">
-        <v>1232.826956011797</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E32" t="n">
         <v>852.1392691878377</v>
@@ -6725,25 +6727,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1556.667914792488</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1556.667914792488</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.966287987609</v>
+        <v>1225.605027448918</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.966287987609</v>
+        <v>1225.605027448918</v>
       </c>
       <c r="X32" t="n">
-        <v>1622.966287987609</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="Y32" t="n">
-        <v>1232.826956011797</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6779,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>236.9655055809357</v>
+        <v>147.3709770270844</v>
       </c>
       <c r="M33" t="n">
-        <v>636.3836421851987</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N33" t="n">
-        <v>1038.067798462132</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O33" t="n">
         <v>1271.486777082839</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>213.333508020557</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>1368.281799781722</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>596.0482301975405</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="C35" t="n">
-        <v>596.0482301975405</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="D35" t="n">
-        <v>596.0482301975405</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="E35" t="n">
-        <v>596.0482301975405</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="F35" t="n">
-        <v>596.0482301975405</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G35" t="n">
         <v>222.1153555684087</v>
@@ -6959,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.355469729112</v>
       </c>
       <c r="S35" t="n">
-        <v>1425.397688154633</v>
+        <v>1315.786869896136</v>
       </c>
       <c r="T35" t="n">
-        <v>1202.653768535401</v>
+        <v>1315.786869896136</v>
       </c>
       <c r="U35" t="n">
-        <v>948.8168854676546</v>
+        <v>1315.786869896136</v>
       </c>
       <c r="V35" t="n">
-        <v>948.8168854676546</v>
+        <v>984.7239825525655</v>
       </c>
       <c r="W35" t="n">
-        <v>596.0482301975405</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="X35" t="n">
-        <v>596.0482301975405</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="Y35" t="n">
-        <v>596.0482301975405</v>
+        <v>631.9553272824514</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.6990475946959</v>
+        <v>549.7496870371101</v>
       </c>
       <c r="C36" t="n">
-        <v>796.2460183135689</v>
+        <v>375.2966577559831</v>
       </c>
       <c r="D36" t="n">
-        <v>647.3116086523177</v>
+        <v>226.3622480947319</v>
       </c>
       <c r="E36" t="n">
-        <v>488.0741536468622</v>
+        <v>67.12479308927635</v>
       </c>
       <c r="F36" t="n">
-        <v>341.5395956737472</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G36" t="n">
-        <v>203.1272224329174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H36" t="n">
-        <v>92.83366444038066</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K36" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L36" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M36" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T36" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U36" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V36" t="n">
-        <v>1138.914384614764</v>
+        <v>1387.814179755866</v>
       </c>
       <c r="W36" t="n">
-        <v>1138.914384614764</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="X36" t="n">
-        <v>1138.914384614764</v>
+        <v>925.7253228221321</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.914384614764</v>
+        <v>717.9650240571782</v>
       </c>
     </row>
     <row r="37">
@@ -7117,25 +7119,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="Y37" t="n">
         <v>32.45932575975218</v>
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>401.4218427001639</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C38" t="n">
         <v>32.45932575975219</v>
@@ -7172,22 +7174,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P38" t="n">
         <v>1569.862809315274</v>
@@ -7196,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1339.090268381595</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1085.253385313849</v>
+        <v>1476.356466698639</v>
       </c>
       <c r="V38" t="n">
-        <v>754.1904979702781</v>
+        <v>1145.293579355068</v>
       </c>
       <c r="W38" t="n">
-        <v>401.4218427001639</v>
+        <v>792.5249240849539</v>
       </c>
       <c r="X38" t="n">
-        <v>401.4218427001639</v>
+        <v>419.059165823874</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.4218427001639</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>703.5042351695847</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C39" t="n">
-        <v>529.0512058884577</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D39" t="n">
-        <v>380.1167962272065</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E39" t="n">
-        <v>220.879341221751</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F39" t="n">
-        <v>74.34478324863593</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G39" t="n">
-        <v>74.34478324863593</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975219</v>
@@ -7251,22 +7253,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384404</v>
+        <v>91.88297124942892</v>
       </c>
       <c r="L39" t="n">
-        <v>147.3709770270845</v>
+        <v>389.6147262310921</v>
       </c>
       <c r="M39" t="n">
-        <v>546.7891136313475</v>
+        <v>789.0328628353551</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082808</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P39" t="n">
         <v>1513.730526286846</v>
@@ -7278,25 +7280,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T39" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U39" t="n">
-        <v>1541.568727888341</v>
+        <v>1072.277455785845</v>
       </c>
       <c r="V39" t="n">
-        <v>1541.568727888341</v>
+        <v>837.1253475541027</v>
       </c>
       <c r="W39" t="n">
-        <v>1287.331371160139</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="X39" t="n">
-        <v>1079.479870954607</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y39" t="n">
-        <v>871.7195721896528</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="40">
@@ -7357,22 +7359,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>139.6199360758255</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U40" t="n">
-        <v>139.6199360758255</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V40" t="n">
-        <v>139.6199360758255</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W40" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X40" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y40" t="n">
         <v>32.45932575975219</v>
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>759.6875413069145</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C41" t="n">
-        <v>390.7250243665027</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D41" t="n">
-        <v>32.45932575975219</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E41" t="n">
         <v>32.45932575975219</v>
@@ -7409,16 +7411,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011317</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7433,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1567.331231337463</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1567.331231337463</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1344.587311718231</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1090.750428650485</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>759.6875413069145</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>759.6875413069145</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X41" t="n">
-        <v>759.6875413069145</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y41" t="n">
-        <v>759.6875413069145</v>
+        <v>1532.07563396928</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>529.3490175189916</v>
+        <v>612.6748806677822</v>
       </c>
       <c r="C42" t="n">
-        <v>354.8959882378646</v>
+        <v>438.2218513866552</v>
       </c>
       <c r="D42" t="n">
-        <v>205.9615785766133</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="E42" t="n">
-        <v>178.9938837328672</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H42" t="n">
         <v>32.45932575975219</v>
@@ -7491,19 +7493,19 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L42" t="n">
-        <v>498.850487931855</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M42" t="n">
-        <v>898.268624536118</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N42" t="n">
-        <v>1299.952780813051</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O42" t="n">
-        <v>1622.966287987609</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P42" t="n">
         <v>1622.966287987609</v>
@@ -7515,25 +7517,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T42" t="n">
-        <v>1173.163483952</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U42" t="n">
-        <v>944.9608164894784</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V42" t="n">
-        <v>944.9608164894784</v>
+        <v>1450.739373386539</v>
       </c>
       <c r="W42" t="n">
-        <v>944.9608164894784</v>
+        <v>1196.502016658337</v>
       </c>
       <c r="X42" t="n">
-        <v>737.1093162839455</v>
+        <v>988.6505164528041</v>
       </c>
       <c r="Y42" t="n">
-        <v>529.3490175189916</v>
+        <v>780.8902176878503</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.2466016029501</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="C43" t="n">
-        <v>361.2466016029501</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="D43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F43" t="n">
-        <v>214.3566541050398</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G43" t="n">
-        <v>214.3566541050398</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H43" t="n">
-        <v>52.86451470726684</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I43" t="n">
         <v>32.45932575975219</v>
@@ -7570,7 +7572,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L43" t="n">
         <v>107.0302722280248</v>
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>222.1153555684087</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C44" t="n">
-        <v>222.1153555684087</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D44" t="n">
-        <v>222.1153555684087</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E44" t="n">
-        <v>222.1153555684087</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F44" t="n">
-        <v>222.1153555684087</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
@@ -7649,10 +7651,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
         <v>838.8947028941457</v>
@@ -7661,37 +7663,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P44" t="n">
-        <v>1569.862809315274</v>
+        <v>1569.862809315275</v>
       </c>
       <c r="Q44" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1580.096300702048</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1382.527700869072</v>
+        <v>1602.711642774458</v>
       </c>
       <c r="T44" t="n">
-        <v>1159.783781249839</v>
+        <v>1379.967723155226</v>
       </c>
       <c r="U44" t="n">
-        <v>905.9468981820935</v>
+        <v>1126.13084008748</v>
       </c>
       <c r="V44" t="n">
-        <v>574.8840108385228</v>
+        <v>795.0679527439091</v>
       </c>
       <c r="W44" t="n">
-        <v>222.1153555684087</v>
+        <v>442.299297473795</v>
       </c>
       <c r="X44" t="n">
-        <v>222.1153555684087</v>
+        <v>442.299297473795</v>
       </c>
       <c r="Y44" t="n">
-        <v>222.1153555684087</v>
+        <v>442.299297473795</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>549.7496870371103</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C45" t="n">
-        <v>375.2966577559833</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D45" t="n">
-        <v>226.3622480947321</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E45" t="n">
-        <v>67.12479308927658</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F45" t="n">
-        <v>67.12479308927658</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G45" t="n">
-        <v>67.12479308927658</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H45" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K45" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>147.3709770270843</v>
       </c>
       <c r="M45" t="n">
-        <v>729.6092173456784</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N45" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U45" t="n">
-        <v>1622.966287987609</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="V45" t="n">
-        <v>1387.814179755867</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="W45" t="n">
-        <v>1133.576823027665</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="X45" t="n">
-        <v>925.7253228221323</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="Y45" t="n">
-        <v>717.9650240571784</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.3724193421453</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="C46" t="n">
-        <v>180.3724193421453</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="D46" t="n">
-        <v>180.3724193421453</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G46" t="n">
         <v>32.45932575975219</v>
@@ -7834,22 +7836,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>180.3724193421453</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="U46" t="n">
-        <v>180.3724193421453</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="V46" t="n">
-        <v>180.3724193421453</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="W46" t="n">
-        <v>180.3724193421453</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="X46" t="n">
-        <v>180.3724193421453</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="Y46" t="n">
-        <v>180.3724193421453</v>
+        <v>201.8802040902677</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8541,10 +8543,10 @@
         <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>74.46639351210649</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304796</v>
+        <v>390.1250211658775</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343854</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>63.84875129258623</v>
+        <v>63.84875129258646</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733472</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>303.3627954849606</v>
       </c>
       <c r="P18" t="n">
-        <v>215.0958621574524</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>157.1342855878804</v>
+        <v>70.10119885733472</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>119.5777639440801</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>184.8055467452003</v>
       </c>
       <c r="N24" t="n">
-        <v>63.84875129258623</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,16 +9959,16 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>267.4734388209743</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O27" t="n">
-        <v>290.4954127942447</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>89.94082829865947</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>174.18790452568</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,22 +10427,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
-        <v>70.10119885733472</v>
+        <v>186.173573874842</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O33" t="n">
-        <v>303.3627954849604</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>63.84875129258623</v>
+        <v>380.7598033349562</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026374</v>
+        <v>146.9565108232705</v>
       </c>
       <c r="L39" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10917,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L42" t="n">
-        <v>334.6314840602834</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>73.77211287831322</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.73813450275541</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878804</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>98.18619425186478</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>301.4929058936217</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23334,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>38.75600312014119</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>202.7107073159006</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23431,13 +23433,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>159.8772180037952</v>
+        <v>120.5819502228691</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>31.86954967785113</v>
+        <v>90.35522986376945</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23574,22 +23576,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>124.0019112122655</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23622,22 +23624,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>202.7107073159004</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23668,13 +23670,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>56.55224943852481</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>56.79311626624418</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>109.6588881535606</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>95.56164659442632</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>101.7653978813093</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -23859,16 +23861,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23911,7 +23913,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>62.08409257158713</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>62.08409257158714</v>
       </c>
       <c r="S19" t="n">
         <v>219.4103988718534</v>
@@ -23969,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>284.0569217841154</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
@@ -24029,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>331.2827985005327</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>108.4083363223858</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>2.90515915318008</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24102,16 +24104,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24145,10 +24147,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
-        <v>47.71221036235197</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
@@ -24184,13 +24186,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>213.1612385756532</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>277.1046868984059</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>252.3860301008907</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>125.6138693503457</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>22.69279131054518</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24379,13 +24381,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>147.5019580580808</v>
+        <v>56.55224943852478</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>212.9428526967579</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>57.05296305297673</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24497,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>252.3860301008911</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24531,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.0282495084215</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>71.55960542206316</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24576,19 +24578,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>58.91773949627159</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>21.57939819579917</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>72.9172304492661</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>306.9349787968916</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>22.87393886755143</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
@@ -24759,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,10 +24770,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>61.1427893658459</v>
       </c>
       <c r="H30" t="n">
         <v>109.1906224126114</v>
@@ -24804,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>70.34224238427481</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>128.7502647990354</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>118.794905656366</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>5.049560116541727</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>1.134473744809156</v>
@@ -24968,22 +24970,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>154.8810909598698</v>
       </c>
       <c r="U32" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25081,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>134.0822771319449</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
@@ -25132,10 +25134,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>213.1612385756532</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>44.51995824769335</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>4.340976269785727</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25242,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>110.750399737155</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>18.77142751331585</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
@@ -25293,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25357,7 +25359,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
         <v>219.4103988718534</v>
@@ -25366,7 +25368,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>126.2142705097871</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>118.794905656366</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>52.33490735878274</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>106.1547911609873</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25473,19 +25475,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>67.72401949861646</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25518,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>126.0434729034033</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>180.4339941236784</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>119.9015159566401</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25673,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>57.77698026205269</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>296.2561911779078</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25713,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>130.9470625600923</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25722,7 +25724,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -25755,19 +25757,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>142.8795261926408</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>2.948050115383722</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>127.3008210000413</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R43" t="n">
         <v>165.4090611368575</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>70.41439893299169</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>175.5408150736266</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25953,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>74.87180975638222</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>210.7854599573486</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26029,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26074,7 +26076,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>47.75082525111449</v>
+        <v>69.04353215175573</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519116.0846301697</v>
+        <v>519116.0846301699</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>519116.0846301698</v>
+        <v>519116.08463017</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>519116.0846301698</v>
+        <v>519116.0846301699</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>519116.0846301696</v>
+        <v>519116.0846301698</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>519116.0846301697</v>
+        <v>519116.0846301699</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>519116.0846301692</v>
+        <v>519116.0846301694</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>519116.0846301693</v>
+        <v>519116.0846301698</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>519116.0846301696</v>
+        <v>519116.0846301693</v>
       </c>
     </row>
     <row r="14">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26323,13 +26325,13 @@
         <v>245673.2316242975</v>
       </c>
       <c r="F2" t="n">
-        <v>245673.2316242974</v>
+        <v>245673.2316242976</v>
       </c>
       <c r="G2" t="n">
         <v>245673.2316242975</v>
       </c>
       <c r="H2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242974</v>
       </c>
       <c r="I2" t="n">
         <v>245673.2316242975</v>
@@ -26338,19 +26340,19 @@
         <v>245673.2316242975</v>
       </c>
       <c r="K2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242977</v>
       </c>
       <c r="L2" t="n">
         <v>245673.2316242975</v>
       </c>
       <c r="M2" t="n">
-        <v>245673.2316242975</v>
+        <v>245673.2316242976</v>
       </c>
       <c r="N2" t="n">
-        <v>245673.2316242974</v>
+        <v>245673.2316242976</v>
       </c>
       <c r="O2" t="n">
-        <v>245673.2316242974</v>
+        <v>245673.2316242976</v>
       </c>
       <c r="P2" t="n">
         <v>245673.2316242975</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252467</v>
+        <v>166940.1701252468</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244792</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
-        <v>17394.13523139261</v>
+        <v>17394.1352313926</v>
       </c>
       <c r="F4" t="n">
         <v>17394.13523139261</v>
@@ -26433,7 +26435,7 @@
         <v>17394.13523139261</v>
       </c>
       <c r="H4" t="n">
-        <v>17394.1352313926</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="I4" t="n">
         <v>17394.13523139261</v>
@@ -26442,7 +26444,7 @@
         <v>17394.13523139261</v>
       </c>
       <c r="K4" t="n">
-        <v>17394.13523139261</v>
+        <v>17394.1352313926</v>
       </c>
       <c r="L4" t="n">
         <v>17394.1352313926</v>
@@ -26457,7 +26459,7 @@
         <v>17394.13523139261</v>
       </c>
       <c r="P4" t="n">
-        <v>17394.13523139261</v>
+        <v>17394.1352313926</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375757</v>
@@ -26485,7 +26487,7 @@
         <v>27864.35291375757</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375757</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47188.10010121333</v>
+        <v>47188.10010121321</v>
       </c>
       <c r="C6" t="n">
-        <v>127957.5316327612</v>
+        <v>127957.5316327609</v>
       </c>
       <c r="D6" t="n">
         <v>127957.5316327611</v>
       </c>
       <c r="E6" t="n">
-        <v>33474.57335390062</v>
+        <v>33474.57335390059</v>
       </c>
       <c r="F6" t="n">
-        <v>200414.7434791473</v>
+        <v>200414.7434791474</v>
       </c>
       <c r="G6" t="n">
         <v>200414.7434791473</v>
       </c>
       <c r="H6" t="n">
-        <v>200414.7434791474</v>
+        <v>200414.7434791473</v>
       </c>
       <c r="I6" t="n">
-        <v>200414.7434791474</v>
+        <v>200414.7434791473</v>
       </c>
       <c r="J6" t="n">
         <v>137354.8008800411</v>
       </c>
       <c r="K6" t="n">
+        <v>200414.7434791475</v>
+      </c>
+      <c r="L6" t="n">
         <v>200414.7434791474</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>159364.0456166995</v>
+      </c>
+      <c r="N6" t="n">
+        <v>200414.7434791474</v>
+      </c>
+      <c r="O6" t="n">
+        <v>200414.7434791474</v>
+      </c>
+      <c r="P6" t="n">
         <v>200414.7434791473</v>
-      </c>
-      <c r="M6" t="n">
-        <v>159364.0456166994</v>
-      </c>
-      <c r="N6" t="n">
-        <v>200414.7434791473</v>
-      </c>
-      <c r="O6" t="n">
-        <v>200414.7434791473</v>
-      </c>
-      <c r="P6" t="n">
-        <v>200414.7434791474</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26755,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
         <v>146.571804419537</v>
@@ -26774,7 +26776,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="O3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="P3" t="n">
         <v>146.5718044195371</v>
@@ -26796,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="F4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="G4" t="n">
         <v>405.7415719969023</v>
-      </c>
-      <c r="F4" t="n">
-        <v>405.7415719969023</v>
-      </c>
-      <c r="G4" t="n">
-        <v>405.7415719969024</v>
       </c>
       <c r="H4" t="n">
         <v>405.7415719969023</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174.7087999633573</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>157.2478500708843</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27436,13 +27438,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27467,19 +27469,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>20.72228831938939</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>50.76622319238038</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27555,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27616,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>191.3042876607637</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27670,10 +27672,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>144.2829071375616</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27698,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>96.3248195465618</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>150.9240573450237</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27792,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27853,13 +27855,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>187.1155787390244</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>351.6835848413606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,13 +27870,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27919,7 +27921,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>29.49070495153072</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27941,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27983,16 +27985,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>135.7807179558421</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28029,10 +28031,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>24.98494807699674</v>
       </c>
       <c r="J10" t="n">
-        <v>46.33425578299912</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28050,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -32461,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
@@ -32485,16 +32487,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
@@ -32503,7 +32505,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32545,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,40 +32624,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M22" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -34120,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H41" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I41" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J41" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K41" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L41" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M41" t="n">
         <v>103.4642265438474</v>
@@ -34144,16 +34146,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O41" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P41" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R41" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S41" t="n">
         <v>13.4271557515988</v>
@@ -34162,7 +34164,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,46 +34204,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H42" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I42" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J42" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K42" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L42" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M42" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N42" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O42" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P42" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R42" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S42" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T42" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,40 +34283,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H43" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I43" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J43" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K43" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L43" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M43" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N43" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O43" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P43" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R43" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S43" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T43" t="n">
         <v>1.129323738970203</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35261,10 +35263,10 @@
         <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35495,13 +35497,13 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>340.7791716323001</v>
       </c>
       <c r="O12" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
@@ -35735,7 +35737,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>14.50290175900885</v>
+        <v>14.50290175900908</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35963,25 +35965,25 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
-        <v>326.276269873291</v>
+        <v>235.7767460815221</v>
       </c>
       <c r="P18" t="n">
-        <v>141.3237492791392</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
@@ -36139,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,10 +36202,10 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L21" t="n">
-        <v>87.03308673054569</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>403.4526632366293</v>
@@ -36215,10 +36217,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>19.83962944132466</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
         <v>66.88568574354744</v>
@@ -36291,10 +36293,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366293</v>
+        <v>122.5531462318296</v>
       </c>
       <c r="N24" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36455,7 +36457,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>300.7391464461244</v>
+        <v>197.3722399636396</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366293</v>
@@ -36686,7 +36688,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>222.9093633908061</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
         <v>244.6906557616239</v>
@@ -36914,13 +36916,13 @@
         <v>177.5326105223149</v>
       </c>
       <c r="L30" t="n">
-        <v>300.7391464461244</v>
+        <v>19.83962944132475</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>124.8420549921026</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>116.0723750175073</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
@@ -37160,7 +37162,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O33" t="n">
-        <v>235.7767460815218</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
         <v>244.6906557616239</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
@@ -37394,7 +37396,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>14.50290175900885</v>
+        <v>331.4139538013789</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37403,7 +37405,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167957</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>60.0238843330068</v>
       </c>
       <c r="L39" t="n">
-        <v>87.03308673054592</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366293</v>
@@ -37637,7 +37639,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>110.3391532330937</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
@@ -37798,7 +37800,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>264.5302852029487</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
@@ -37874,7 +37876,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L43" t="n">
         <v>66.88568574354744</v>
@@ -37950,10 +37952,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O43" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P43" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680266</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054569</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>
@@ -38111,10 +38113,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>170.3630375661004</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1247107.495523479</v>
+        <v>1191329.973380874</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111178</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7336969.210339788</v>
+        <v>7336969.210339787</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>208.0250417001232</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>200.9287599685392</v>
+        <v>106.9554893793478</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>183.4693513325733</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>103.8399091482598</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>169.9088723636406</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>230.6992324161051</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>178.1573130319831</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>137.0424786983366</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>115.8746375175634</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>130.4655268502615</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
-        <v>235.2541214638558</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>45.57109135971024</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.7771805297262</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>64.06181481010681</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
         <v>225.9206407878966</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>106.9147497326712</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>39.2952677809261</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>327.3508938456701</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>22.50045648192799</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>48.70658777605028</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>8.061611165427063</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
         <v>78.54202280713804</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
@@ -1748,10 +1748,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.3249685652704</v>
+        <v>38.97640474817501</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>293.1718696602454</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>141.6396260835078</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>7.42522453130207</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
@@ -1979,16 +1979,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>56.56925320138669</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>103.3249685652704</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>70.62611983656755</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>41.74712847161781</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.67842534509543</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>101.8122424016785</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>98.68313739545481</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>38.97640474817486</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>211.7304284926917</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>117.3450705775783</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>153.4340904004342</v>
       </c>
       <c r="U24" t="n">
-        <v>203.2278494773514</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,7 +2462,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>90.94970861955598</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>384.4442378163387</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>117.3450705775779</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.023979076212363</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>59.06606304088368</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>145.6674229028287</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>399.8885402891419</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.98174747814602</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2873,19 +2873,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>75.88546014257555</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>87.30283807112627</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>106.9147497326712</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>65.63538946317004</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>96.85493861652184</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>87.30283807112627</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>9.637108967925757</v>
       </c>
       <c r="F34" t="n">
-        <v>11.33877089098639</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.5147100759117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>34.46500819446488</v>
       </c>
     </row>
     <row r="36">
@@ -3350,16 +3350,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>34.31881265622893</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>29.26107273530876</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.78974769572881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>179.3720598661024</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>145.1437230760811</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3584,10 +3584,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>41.57898488951658</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>99.87716788449325</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,10 +3647,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>158.2525819861381</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>53.1952895988492</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>89.98174747814579</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3827,16 +3827,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>14.17115707181026</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>89.9210609567845</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>35.41912010935325</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.05209876101992</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4061,22 +4061,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>15.13518083054801</v>
+        <v>140.5149798707072</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.7266695472104</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>12.35168551462431</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>157.7727335375556</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C2" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D2" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E2" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F2" t="n">
-        <v>278.1872303756613</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>738.7078125165641</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>738.7078125165641</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W2" t="n">
-        <v>738.7078125165641</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>738.7078125165641</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y2" t="n">
-        <v>738.7078125165641</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>547.0914794406409</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>525.9467038763287</v>
+        <v>754.8517782055949</v>
       </c>
       <c r="X3" t="n">
-        <v>318.0952036707959</v>
+        <v>754.8517782055949</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>547.0914794406409</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4509,31 +4509,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>768.6429630387997</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C5" t="n">
-        <v>525.1941863946997</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D5" t="n">
-        <v>281.7454097505996</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E5" t="n">
-        <v>281.7454097505996</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4603,16 +4603,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>768.6429630387997</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>768.6429630387997</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X5" t="n">
-        <v>768.6429630387997</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y5" t="n">
-        <v>768.6429630387997</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
         <v>20.03527576299844</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>584.5814843947364</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>584.5814843947364</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>584.5814843947364</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>584.5814843947364</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X6" t="n">
-        <v>376.7299841892036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4749,28 +4749,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5698337361135</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C9" t="n">
-        <v>166.5698337361135</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D9" t="n">
-        <v>166.5698337361135</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W9" t="n">
-        <v>720.6083788665362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X9" t="n">
-        <v>512.7568786610034</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y9" t="n">
-        <v>304.9965798960495</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>459.7457812894752</v>
+        <v>825.1391026004928</v>
       </c>
       <c r="C11" t="n">
-        <v>459.7457812894752</v>
+        <v>825.1391026004928</v>
       </c>
       <c r="D11" t="n">
-        <v>459.7457812894752</v>
+        <v>825.1391026004928</v>
       </c>
       <c r="E11" t="n">
-        <v>459.7457812894752</v>
+        <v>825.1391026004928</v>
       </c>
       <c r="F11" t="n">
-        <v>459.7457812894752</v>
+        <v>825.1391026004928</v>
       </c>
       <c r="G11" t="n">
-        <v>459.7457812894752</v>
+        <v>415.29913088645</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>78.49073117360092</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975219</v>
@@ -5047,46 +5047,46 @@
         <v>247.358046901132</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S11" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T11" t="n">
-        <v>1202.653768535401</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U11" t="n">
-        <v>1202.653768535401</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V11" t="n">
-        <v>1202.653768535401</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="W11" t="n">
-        <v>849.8851132652869</v>
+        <v>825.1391026004928</v>
       </c>
       <c r="X11" t="n">
-        <v>849.8851132652869</v>
+        <v>825.1391026004928</v>
       </c>
       <c r="Y11" t="n">
-        <v>459.7457812894752</v>
+        <v>825.1391026004928</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>111.7947023326189</v>
+        <v>207.4617876008817</v>
       </c>
       <c r="C12" t="n">
-        <v>111.7947023326189</v>
+        <v>207.4617876008817</v>
       </c>
       <c r="D12" t="n">
-        <v>111.7947023326189</v>
+        <v>207.4617876008817</v>
       </c>
       <c r="E12" t="n">
-        <v>111.7947023326189</v>
+        <v>207.4617876008817</v>
       </c>
       <c r="F12" t="n">
-        <v>111.7947023326189</v>
+        <v>207.4617876008817</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L12" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668621</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N12" t="n">
-        <v>1271.486777082839</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T12" t="n">
-        <v>1374.066492846507</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U12" t="n">
-        <v>1145.863825383985</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V12" t="n">
-        <v>910.7117171522427</v>
+        <v>877.31094329957</v>
       </c>
       <c r="W12" t="n">
-        <v>656.4743604240412</v>
+        <v>623.0735865713684</v>
       </c>
       <c r="X12" t="n">
-        <v>448.6228602185083</v>
+        <v>415.2220863658356</v>
       </c>
       <c r="Y12" t="n">
-        <v>240.8625614535544</v>
+        <v>207.4617876008817</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5220,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y13" t="n">
-        <v>296.5701361642185</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.45932575975219</v>
+        <v>748.9050468889764</v>
       </c>
       <c r="C14" t="n">
-        <v>32.45932575975219</v>
+        <v>748.9050468889764</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975219</v>
+        <v>748.9050468889764</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975219</v>
+        <v>363.1167942907321</v>
       </c>
       <c r="F14" t="n">
         <v>32.45932575975219</v>
@@ -5284,7 +5284,7 @@
         <v>247.358046901132</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M14" t="n">
         <v>838.8947028941458</v>
@@ -5302,28 +5302,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R14" t="n">
-        <v>1600.23855416748</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1402.669954334504</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T14" t="n">
-        <v>1402.669954334504</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U14" t="n">
-        <v>1148.833071266758</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V14" t="n">
-        <v>1148.833071266758</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W14" t="n">
-        <v>796.0644159966438</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="X14" t="n">
-        <v>422.5986577355639</v>
+        <v>1135.504886953098</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.45932575975219</v>
+        <v>1135.504886953098</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>160.9932758437808</v>
+        <v>543.0967044283518</v>
       </c>
       <c r="C15" t="n">
-        <v>111.7947023326189</v>
+        <v>368.6436751472248</v>
       </c>
       <c r="D15" t="n">
-        <v>111.7947023326189</v>
+        <v>368.6436751472248</v>
       </c>
       <c r="E15" t="n">
-        <v>111.7947023326189</v>
+        <v>368.6436751472248</v>
       </c>
       <c r="F15" t="n">
-        <v>111.7947023326189</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G15" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H15" t="n">
         <v>111.7947023326189</v>
@@ -5357,7 +5357,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384405</v>
       </c>
       <c r="K15" t="n">
         <v>236.9655055809358</v>
@@ -5369,10 +5369,10 @@
         <v>934.1153971668621</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082811</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="P15" t="n">
         <v>1513.730526286847</v>
@@ -5384,25 +5384,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T15" t="n">
-        <v>1254.561044051269</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U15" t="n">
-        <v>1026.358376588747</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V15" t="n">
-        <v>791.2062683570043</v>
+        <v>958.7085033988385</v>
       </c>
       <c r="W15" t="n">
-        <v>536.9689116288027</v>
+        <v>958.7085033988385</v>
       </c>
       <c r="X15" t="n">
-        <v>536.9689116288027</v>
+        <v>750.8570031933057</v>
       </c>
       <c r="Y15" t="n">
-        <v>329.2086128638488</v>
+        <v>543.0967044283518</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598958</v>
       </c>
       <c r="C16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598958</v>
       </c>
       <c r="D16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598958</v>
       </c>
       <c r="E16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598958</v>
       </c>
       <c r="F16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598958</v>
       </c>
       <c r="G16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598958</v>
       </c>
       <c r="H16" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5448,40 +5448,40 @@
         <v>187.235757098444</v>
       </c>
       <c r="N16" t="n">
-        <v>270.9687512285709</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O16" t="n">
         <v>332.2934283710737</v>
       </c>
       <c r="P16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="S16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="T16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="U16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="V16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="W16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598958</v>
       </c>
       <c r="X16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598958</v>
       </c>
       <c r="Y16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598958</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.45932575975219</v>
+        <v>328.5925274367677</v>
       </c>
       <c r="C17" t="n">
         <v>32.45932575975219</v>
@@ -5524,43 +5524,43 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O17" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P17" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q17" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1479.895958610329</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V17" t="n">
-        <v>1148.833071266758</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W17" t="n">
-        <v>796.0644159966438</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X17" t="n">
-        <v>422.5986577355639</v>
+        <v>715.1923675008895</v>
       </c>
       <c r="Y17" t="n">
-        <v>32.45932575975219</v>
+        <v>715.1923675008895</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39.95955255904721</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C18" t="n">
-        <v>39.95955255904721</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D18" t="n">
-        <v>39.95955255904721</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E18" t="n">
-        <v>39.95955255904721</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F18" t="n">
-        <v>39.95955255904721</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G18" t="n">
-        <v>39.95955255904721</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975219</v>
@@ -5600,46 +5600,46 @@
         <v>236.9655055809358</v>
       </c>
       <c r="L18" t="n">
-        <v>236.9655055809358</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M18" t="n">
-        <v>636.3836421851988</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N18" t="n">
-        <v>1038.067798462132</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O18" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q18" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894784</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577356</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="W18" t="n">
-        <v>455.571351529534</v>
+        <v>1197.420384251888</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240011</v>
+        <v>1197.420384251888</v>
       </c>
       <c r="Y18" t="n">
-        <v>39.95955255904721</v>
+        <v>989.6600854869342</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C19" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D19" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E19" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F19" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G19" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H19" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I19" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J19" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5697,28 +5697,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>256.8779464865154</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>256.8779464865154</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>256.8779464865154</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>256.8779464865154</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>256.8779464865154</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>256.8779464865154</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X19" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y19" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>472.7613576865958</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="C20" t="n">
-        <v>103.7988407461841</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="D20" t="n">
-        <v>32.45932575975218</v>
+        <v>674.1241439204493</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975218</v>
+        <v>674.1241439204493</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975218</v>
+        <v>674.1241439204493</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>264.2841722064065</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521511</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="U20" t="n">
-        <v>1622.966287987609</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.966287987609</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="W20" t="n">
-        <v>1622.966287987609</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="X20" t="n">
-        <v>1249.500529726529</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="Y20" t="n">
-        <v>859.3611977507176</v>
+        <v>1032.3898425272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>800.0311509215306</v>
+        <v>661.618777680701</v>
       </c>
       <c r="C21" t="n">
-        <v>625.5781216404037</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D21" t="n">
-        <v>476.6437119791524</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E21" t="n">
-        <v>317.4062569736969</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F21" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L21" t="n">
-        <v>236.9655055809357</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M21" t="n">
-        <v>636.3836421851987</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N21" t="n">
-        <v>1038.067798462132</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O21" t="n">
-        <v>1361.08130563669</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P21" t="n">
-        <v>1603.325054840698</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R21" t="n">
-        <v>1544.503232083472</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S21" t="n">
-        <v>1377.000997041638</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T21" t="n">
-        <v>1176.097988147131</v>
+        <v>1520.125639097025</v>
       </c>
       <c r="U21" t="n">
-        <v>1176.097988147131</v>
+        <v>1291.922971634503</v>
       </c>
       <c r="V21" t="n">
-        <v>1176.097988147131</v>
+        <v>1291.922971634503</v>
       </c>
       <c r="W21" t="n">
-        <v>1176.097988147131</v>
+        <v>1037.685614906302</v>
       </c>
       <c r="X21" t="n">
-        <v>968.2464879415986</v>
+        <v>829.8341147007691</v>
       </c>
       <c r="Y21" t="n">
-        <v>968.2464879415986</v>
+        <v>829.8341147007691</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280249</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.2357570984441</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710738</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.966287987609</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V22" t="n">
-        <v>1583.596182181372</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32.45932575975219</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="C23" t="n">
-        <v>32.45932575975219</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975219</v>
+        <v>1041.956669761627</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975219</v>
+        <v>656.1684171633826</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975219</v>
+        <v>246.3284454493398</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975219</v>
+        <v>246.3284454493398</v>
       </c>
       <c r="H23" t="n">
         <v>32.45932575975219</v>
@@ -5998,43 +5998,43 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R23" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S23" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T23" t="n">
-        <v>1088.658125761969</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U23" t="n">
-        <v>834.8212426942232</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V23" t="n">
-        <v>503.7583553506526</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W23" t="n">
-        <v>150.9897000805384</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X23" t="n">
-        <v>32.45932575975219</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y23" t="n">
-        <v>32.45932575975219</v>
+        <v>1400.222368368377</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>512.6843680194497</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C24" t="n">
-        <v>338.2313387383227</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D24" t="n">
-        <v>338.2313387383227</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E24" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F24" t="n">
         <v>32.45932575975219</v>
@@ -6068,52 +6068,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L24" t="n">
-        <v>534.697260562599</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321104</v>
+        <v>607.634746781107</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609044</v>
+        <v>1009.31890305804</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1332.332410232598</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.576159436606</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.966287987609</v>
+        <v>1300.480123248367</v>
       </c>
       <c r="U24" t="n">
-        <v>1417.685631949881</v>
+        <v>1072.277455785845</v>
       </c>
       <c r="V24" t="n">
-        <v>1182.533523718138</v>
+        <v>837.1253475541027</v>
       </c>
       <c r="W24" t="n">
-        <v>928.2961669899364</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="X24" t="n">
-        <v>720.4446667844036</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.6843680194497</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>199.7544622051772</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
         <v>32.45932575975219</v>
@@ -6171,28 +6171,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U25" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.45932575975218</v>
+        <v>757.595238418398</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975218</v>
+        <v>757.595238418398</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>757.595238418398</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>757.595238418398</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>757.595238418398</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H26" t="n">
         <v>32.45932575975218</v>
@@ -6259,19 +6259,19 @@
         <v>1088.658125761969</v>
       </c>
       <c r="U26" t="n">
-        <v>834.8212426942227</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V26" t="n">
-        <v>503.7583553506521</v>
+        <v>757.595238418398</v>
       </c>
       <c r="W26" t="n">
-        <v>150.9897000805379</v>
+        <v>757.595238418398</v>
       </c>
       <c r="X26" t="n">
-        <v>32.45932575975218</v>
+        <v>757.595238418398</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.45932575975218</v>
+        <v>757.595238418398</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>661.618777680701</v>
+        <v>430.0996666543699</v>
       </c>
       <c r="C27" t="n">
-        <v>487.165748399574</v>
+        <v>430.0996666543699</v>
       </c>
       <c r="D27" t="n">
-        <v>338.2313387383227</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="E27" t="n">
-        <v>178.9938837328672</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H27" t="n">
         <v>32.45932575975218</v>
@@ -6305,52 +6305,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L27" t="n">
-        <v>256.6067387278472</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M27" t="n">
-        <v>656.0248753321102</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1613.851157607597</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1446.348922565762</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1245.445913671256</v>
+        <v>1563.303598047323</v>
       </c>
       <c r="U27" t="n">
-        <v>1245.445913671256</v>
+        <v>1335.100930584801</v>
       </c>
       <c r="V27" t="n">
-        <v>1245.445913671256</v>
+        <v>1099.948822353058</v>
       </c>
       <c r="W27" t="n">
-        <v>1245.445913671256</v>
+        <v>845.7114656248566</v>
       </c>
       <c r="X27" t="n">
-        <v>1037.594413465723</v>
+        <v>637.8599654193238</v>
       </c>
       <c r="Y27" t="n">
-        <v>829.8341147007691</v>
+        <v>430.0996666543699</v>
       </c>
     </row>
     <row r="28">
@@ -6363,19 +6363,19 @@
         <v>179.5981367727104</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="H28" t="n">
         <v>32.45932575975218</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1145.475793905159</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="C29" t="n">
-        <v>776.5132769647469</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="D29" t="n">
-        <v>418.2475783579964</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975218</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975218</v>
+        <v>436.3871442336329</v>
       </c>
       <c r="G29" t="n">
         <v>32.45932575975218</v>
@@ -6487,28 +6487,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S29" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T29" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U29" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V29" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W29" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X29" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y29" t="n">
-        <v>1532.07563396928</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>589.3363479614452</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C30" t="n">
-        <v>414.8833186803182</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D30" t="n">
-        <v>414.8833186803182</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E30" t="n">
-        <v>255.6458636748627</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F30" t="n">
-        <v>109.1113057017477</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
         <v>32.45932575975218</v>
@@ -6542,22 +6542,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>256.6067387278472</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M30" t="n">
-        <v>656.0248753321102</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609043</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P30" t="n">
         <v>1622.966287987609</v>
@@ -6566,28 +6566,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1374.066492846507</v>
+        <v>1534.78160306728</v>
       </c>
       <c r="T30" t="n">
-        <v>1173.163483952</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U30" t="n">
-        <v>1173.163483952</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V30" t="n">
-        <v>1173.163483952</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W30" t="n">
-        <v>1173.163483952</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X30" t="n">
-        <v>965.3119837464671</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y30" t="n">
-        <v>757.5516849815133</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K31" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L31" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N31" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X31" t="n">
-        <v>1514.971591287941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C32" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D32" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E32" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F32" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G32" t="n">
         <v>32.45932575975218</v>
@@ -6700,10 +6700,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521507</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
         <v>519.4894913528326</v>
@@ -6715,37 +6715,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T32" t="n">
-        <v>1556.667914792488</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U32" t="n">
-        <v>1556.667914792488</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V32" t="n">
-        <v>1225.605027448918</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W32" t="n">
-        <v>1225.605027448918</v>
+        <v>405.9250840208321</v>
       </c>
       <c r="X32" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y32" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.45932575975218</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
         <v>32.45932575975218</v>
@@ -6785,19 +6785,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>147.3709770270844</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M33" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6806,25 +6806,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1534.78160306728</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T33" t="n">
-        <v>1333.878594172773</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U33" t="n">
-        <v>1105.675926710251</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V33" t="n">
-        <v>870.5238184785085</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W33" t="n">
-        <v>616.2864617503069</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X33" t="n">
-        <v>408.4349615447741</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y33" t="n">
-        <v>200.6746627798202</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="34">
@@ -6837,16 +6837,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="C34" t="n">
-        <v>361.2466016029501</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="D34" t="n">
-        <v>361.2466016029501</v>
+        <v>42.19377926270749</v>
       </c>
       <c r="E34" t="n">
-        <v>213.333508020557</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F34" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
         <v>32.45932575975218</v>
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>631.9553272824514</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C35" t="n">
-        <v>631.9553272824514</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D35" t="n">
-        <v>631.9553272824514</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E35" t="n">
-        <v>631.9553272824514</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F35" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
         <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
@@ -6961,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1513.355469729112</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1315.786869896136</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1315.786869896136</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1315.786869896136</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>984.7239825525655</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W35" t="n">
-        <v>631.9553272824514</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X35" t="n">
-        <v>631.9553272824514</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y35" t="n">
-        <v>631.9553272824514</v>
+        <v>1214.687390136161</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>549.7496870371101</v>
+        <v>345.324728281709</v>
       </c>
       <c r="C36" t="n">
-        <v>375.2966577559831</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="D36" t="n">
-        <v>226.3622480947319</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="E36" t="n">
-        <v>67.12479308927635</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1910807414154</v>
+        <v>389.6147262310921</v>
       </c>
       <c r="M36" t="n">
-        <v>729.6092173456784</v>
+        <v>789.0328628353551</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609043</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7046,22 +7046,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.966287987609</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U36" t="n">
-        <v>1622.966287987609</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V36" t="n">
-        <v>1387.814179755866</v>
+        <v>958.7085033988383</v>
       </c>
       <c r="W36" t="n">
-        <v>1133.576823027665</v>
+        <v>929.1518642722638</v>
       </c>
       <c r="X36" t="n">
-        <v>925.7253228221321</v>
+        <v>721.3003640667309</v>
       </c>
       <c r="Y36" t="n">
-        <v>717.9650240571782</v>
+        <v>513.5400653017771</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7128,19 +7128,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X37" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.45932575975219</v>
+        <v>623.4831963284439</v>
       </c>
       <c r="C38" t="n">
-        <v>32.45932575975219</v>
+        <v>623.4831963284439</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975219</v>
+        <v>623.4831963284439</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975219</v>
+        <v>623.4831963284439</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975219</v>
+        <v>213.643224614401</v>
       </c>
       <c r="G38" t="n">
         <v>32.45932575975219</v>
@@ -7180,7 +7180,7 @@
         <v>247.358046901132</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M38" t="n">
         <v>838.8947028941458</v>
@@ -7195,31 +7195,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U38" t="n">
-        <v>1476.356466698639</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V38" t="n">
-        <v>1145.293579355068</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W38" t="n">
-        <v>792.5249240849539</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X38" t="n">
-        <v>419.059165823874</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y38" t="n">
-        <v>419.059165823874</v>
+        <v>1010.083036392566</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>206.9123550408792</v>
+        <v>361.8050832977086</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975219</v>
+        <v>361.8050832977086</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975219</v>
+        <v>212.8706736364573</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975219</v>
+        <v>212.8706736364573</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975219</v>
+        <v>212.8706736364573</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975219</v>
+        <v>74.45830039562753</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975219</v>
@@ -7253,52 +7253,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K39" t="n">
-        <v>91.88297124942892</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L39" t="n">
-        <v>389.6147262310921</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M39" t="n">
-        <v>789.0328628353551</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N39" t="n">
-        <v>1190.717019112288</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O39" t="n">
-        <v>1513.730526286846</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q39" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U39" t="n">
-        <v>1072.277455785845</v>
+        <v>1227.261385483254</v>
       </c>
       <c r="V39" t="n">
-        <v>837.1253475541027</v>
+        <v>992.109277251511</v>
       </c>
       <c r="W39" t="n">
-        <v>582.8879908259012</v>
+        <v>737.8719205233094</v>
       </c>
       <c r="X39" t="n">
-        <v>582.8879908259012</v>
+        <v>530.0204203177766</v>
       </c>
       <c r="Y39" t="n">
-        <v>375.1276920609473</v>
+        <v>530.0204203177766</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="C40" t="n">
         <v>32.45932575975219</v>
@@ -7359,25 +7359,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="T40" t="n">
-        <v>132.1392625228377</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="U40" t="n">
-        <v>132.1392625228377</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="V40" t="n">
-        <v>132.1392625228377</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="W40" t="n">
-        <v>132.1392625228377</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="X40" t="n">
-        <v>132.1392625228377</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1145.475793905159</v>
+        <v>811.2618144142067</v>
       </c>
       <c r="C41" t="n">
-        <v>776.5132769647469</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D41" t="n">
-        <v>418.2475783579964</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E41" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F41" t="n">
         <v>32.45932575975219</v>
@@ -7435,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>1255.133762146432</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.966287987609</v>
+        <v>1255.133762146432</v>
       </c>
       <c r="W41" t="n">
-        <v>1622.966287987609</v>
+        <v>1255.133762146432</v>
       </c>
       <c r="X41" t="n">
-        <v>1622.966287987609</v>
+        <v>1255.133762146432</v>
       </c>
       <c r="Y41" t="n">
-        <v>1532.07563396928</v>
+        <v>864.99443017062</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>612.6748806677822</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="C42" t="n">
-        <v>438.2218513866552</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D42" t="n">
-        <v>289.2874417254039</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E42" t="n">
-        <v>289.2874417254039</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F42" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G42" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H42" t="n">
         <v>32.45932575975219</v>
@@ -7490,22 +7490,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K42" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9399761455072</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M42" t="n">
-        <v>758.3581127497703</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N42" t="n">
-        <v>1160.042269026704</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O42" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
         <v>1622.966287987609</v>
@@ -7514,28 +7514,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1541.568727888341</v>
+        <v>1608.651987915074</v>
       </c>
       <c r="U42" t="n">
-        <v>1541.568727888341</v>
+        <v>1380.449320452552</v>
       </c>
       <c r="V42" t="n">
-        <v>1450.739373386539</v>
+        <v>1145.297212220809</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.502016658337</v>
+        <v>891.0598554926078</v>
       </c>
       <c r="X42" t="n">
-        <v>988.6505164528041</v>
+        <v>891.0598554926078</v>
       </c>
       <c r="Y42" t="n">
-        <v>780.8902176878503</v>
+        <v>683.2995567276539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C43" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D43" t="n">
         <v>32.45932575975219</v>
@@ -7602,19 +7602,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>442.299297473795</v>
+        <v>1232.826956011798</v>
       </c>
       <c r="C44" t="n">
-        <v>442.299297473795</v>
+        <v>863.864439071386</v>
       </c>
       <c r="D44" t="n">
-        <v>442.299297473795</v>
+        <v>863.864439071386</v>
       </c>
       <c r="E44" t="n">
-        <v>442.299297473795</v>
+        <v>478.0761864731417</v>
       </c>
       <c r="F44" t="n">
-        <v>442.299297473795</v>
+        <v>68.23621475909891</v>
       </c>
       <c r="G44" t="n">
-        <v>32.45932575975219</v>
+        <v>68.23621475909891</v>
       </c>
       <c r="H44" t="n">
-        <v>32.45932575975219</v>
+        <v>68.23621475909891</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
@@ -7675,25 +7675,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1602.711642774458</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1379.967723155226</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1126.13084008748</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>795.0679527439091</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>442.299297473795</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X44" t="n">
-        <v>442.299297473795</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y44" t="n">
-        <v>442.299297473795</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>989.6600854869342</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C45" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D45" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E45" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L45" t="n">
         <v>147.3709770270843</v>
@@ -7751,28 +7751,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U45" t="n">
-        <v>1157.875422507002</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V45" t="n">
-        <v>1157.875422507002</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W45" t="n">
-        <v>1157.875422507002</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X45" t="n">
-        <v>1157.875422507002</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.875422507002</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C46" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D46" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E46" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F46" t="n">
-        <v>201.8802040902677</v>
+        <v>214.3566541050398</v>
       </c>
       <c r="G46" t="n">
-        <v>32.45932575975219</v>
+        <v>44.93577577452422</v>
       </c>
       <c r="H46" t="n">
-        <v>32.45932575975219</v>
+        <v>44.93577577452422</v>
       </c>
       <c r="I46" t="n">
         <v>32.45932575975219</v>
@@ -7836,22 +7836,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X46" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y46" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>390.1250211658775</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>67.58604940343854</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>63.84875129258646</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343851</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>253.5003682753346</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9248,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>70.10119885733472</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258644</v>
       </c>
       <c r="O18" t="n">
-        <v>303.3627954849606</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344736</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026371</v>
       </c>
       <c r="L21" t="n">
-        <v>70.10119885733472</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444139</v>
       </c>
       <c r="Q21" t="n">
-        <v>119.5777639440801</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733472</v>
       </c>
       <c r="M24" t="n">
-        <v>184.8055467452003</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275541</v>
+        <v>148.6170522310418</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>267.4734388209743</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304796</v>
+        <v>92.88803957954769</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,25 +10190,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>89.94082829865947</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304796</v>
+        <v>447.9178485742653</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q30" t="n">
         <v>99.73813450275541</v>
@@ -10433,7 +10433,7 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
-        <v>186.173573874842</v>
+        <v>296.5127271079358</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>224.2923308271896</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>380.7598033349562</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>146.9565108232705</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258646</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,13 +11150,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>203.2271928126414</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>99.7381345027554</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
-        <v>157.1342855878804</v>
+        <v>186.1735738748418</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H11" t="n">
-        <v>98.18619425186478</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>142.1883781508597</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.75600312014119</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>72.96643469831464</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>72.91723044926614</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23433,13 +23433,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>120.5819502228691</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R13" t="n">
         <v>165.4090611368575</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>79.52515189604134</v>
       </c>
       <c r="G14" t="n">
         <v>414.7135041305339</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>90.35522986376945</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>124.0019112122655</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,13 +23585,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>137.0076012279568</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23636,10 +23636,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>56.55224943852481</v>
+        <v>120.9008132556202</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R16" t="n">
         <v>165.4090611368575</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>72.10102211076219</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>109.6588881535606</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>101.7653978813093</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,16 +23867,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>195.1257299595329</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23910,10 +23910,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R19" t="n">
-        <v>62.08409257158714</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
         <v>219.4103988718534</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>284.0569217841154</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>291.6931872441028</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2.90515915318008</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>97.08173640388314</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434427</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>120.7272614763986</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>213.1612385756532</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,19 +24211,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G23" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>121.7098872230289</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>252.3860301008907</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24293,10 +24293,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
@@ -24335,13 +24335,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>45.45988840512749</v>
       </c>
       <c r="U24" t="n">
-        <v>22.69279131054518</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24381,13 +24381,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
-        <v>56.55224943852478</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R25" t="n">
-        <v>165.4090611368575</v>
+        <v>126.4326563886826</v>
       </c>
       <c r="S25" t="n">
         <v>219.4103988718534</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>30.26926631419519</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24499,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>252.3860301008911</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>71.55960542206316</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>139.827915764678</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>21.57939819579917</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>159.8772180037952</v>
+        <v>14.20979510096655</v>
       </c>
       <c r="I28" t="n">
         <v>147.5019580580808</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>14.82496384139199</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>22.87393886755143</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,19 +24761,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>61.1427893658459</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
         <v>109.1906224126114</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>78.52437462028948</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>118.794905656366</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>154.8810909598698</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>252.3860301008912</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25046,7 +25046,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>78.52437462028948</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>136.7968536786434</v>
       </c>
       <c r="F34" t="n">
-        <v>134.0822771319449</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G35" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.340976269785727</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
@@ -25213,16 +25213,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>351.7729304615887</v>
       </c>
     </row>
     <row r="36">
@@ -25238,16 +25238,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>110.750399737155</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>109.1906224126114</v>
@@ -25286,16 +25286,16 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>222.4339104256108</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.794905656366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25402,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7135041305339</v>
+        <v>235.3414442644315</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
@@ -25444,22 +25444,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>106.1547911609873</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25472,10 +25472,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25484,10 +25484,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>67.61163752309477</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>126.0434729034033</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,10 +25599,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>61.15781688571528</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>119.9015159566401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>329.5385520646314</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G41" t="n">
         <v>414.7135041305339</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
@@ -25684,7 +25684,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.2561911779078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25715,16 +25715,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>184.7228217337514</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>142.8795261926408</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>2.948050115383722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25842,13 +25842,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,25 +25867,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G44" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>152.3403494012167</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>175.5408150736266</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25949,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>210.7854599573486</v>
+        <v>85.40566091718941</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
-        <v>147.5019580580808</v>
+        <v>135.1502725434565</v>
       </c>
       <c r="J46" t="n">
         <v>74.67247646141475</v>
@@ -26076,7 +26076,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>69.04353215175573</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519116.0846301699</v>
+        <v>519116.0846301697</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>519116.08463017</v>
+        <v>519116.0846301694</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>519116.0846301699</v>
+        <v>519116.0846301694</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>519116.0846301693</v>
+        <v>519116.0846301696</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>519116.0846301698</v>
+        <v>519116.0846301693</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>519116.0846301699</v>
+        <v>519116.0846301698</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>519116.0846301694</v>
+        <v>519116.0846301693</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>519116.0846301693</v>
+        <v>519116.0846301694</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>519116.0846301697</v>
+        <v>519116.0846301698</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>519116.0846301698</v>
+        <v>519116.0846301693</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519116.0846301697</v>
+        <v>519116.0846301698</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>245673.2316242975</v>
+        <v>245673.2316242976</v>
       </c>
       <c r="F2" t="n">
         <v>245673.2316242976</v>
       </c>
       <c r="G2" t="n">
+        <v>245673.2316242976</v>
+      </c>
+      <c r="H2" t="n">
         <v>245673.2316242975</v>
-      </c>
-      <c r="H2" t="n">
-        <v>245673.2316242974</v>
       </c>
       <c r="I2" t="n">
         <v>245673.2316242975</v>
       </c>
       <c r="J2" t="n">
+        <v>245673.2316242976</v>
+      </c>
+      <c r="K2" t="n">
         <v>245673.2316242975</v>
-      </c>
-      <c r="K2" t="n">
-        <v>245673.2316242977</v>
       </c>
       <c r="L2" t="n">
         <v>245673.2316242975</v>
       </c>
       <c r="M2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242975</v>
       </c>
       <c r="N2" t="n">
         <v>245673.2316242976</v>
@@ -26355,7 +26355,7 @@
         <v>245673.2316242976</v>
       </c>
       <c r="P2" t="n">
-        <v>245673.2316242975</v>
+        <v>245673.2316242976</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>295860.2172754403</v>
       </c>
       <c r="C4" t="n">
-        <v>295860.2172754402</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="D4" t="n">
         <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
+        <v>17394.13523139261</v>
+      </c>
+      <c r="F4" t="n">
         <v>17394.1352313926</v>
-      </c>
-      <c r="F4" t="n">
-        <v>17394.13523139261</v>
       </c>
       <c r="G4" t="n">
         <v>17394.13523139261</v>
@@ -26447,13 +26447,13 @@
         <v>17394.1352313926</v>
       </c>
       <c r="L4" t="n">
-        <v>17394.1352313926</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="M4" t="n">
         <v>17394.13523139261</v>
       </c>
       <c r="N4" t="n">
-        <v>17394.1352313926</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="O4" t="n">
         <v>17394.13523139261</v>
@@ -26481,13 +26481,13 @@
         <v>27864.35291375757</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375757</v>
@@ -26502,7 +26502,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375757</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47188.10010121321</v>
+        <v>47188.10010121333</v>
       </c>
       <c r="C6" t="n">
-        <v>127957.5316327609</v>
+        <v>127957.5316327611</v>
       </c>
       <c r="D6" t="n">
         <v>127957.5316327611</v>
       </c>
       <c r="E6" t="n">
-        <v>33474.57335390059</v>
+        <v>23629.97396052386</v>
       </c>
       <c r="F6" t="n">
-        <v>200414.7434791474</v>
+        <v>190570.1440857706</v>
       </c>
       <c r="G6" t="n">
-        <v>200414.7434791473</v>
+        <v>190570.1440857707</v>
       </c>
       <c r="H6" t="n">
-        <v>200414.7434791473</v>
+        <v>190570.1440857706</v>
       </c>
       <c r="I6" t="n">
-        <v>200414.7434791473</v>
+        <v>190570.1440857706</v>
       </c>
       <c r="J6" t="n">
-        <v>137354.8008800411</v>
+        <v>127510.2014866644</v>
       </c>
       <c r="K6" t="n">
-        <v>200414.7434791475</v>
+        <v>190570.1440857706</v>
       </c>
       <c r="L6" t="n">
-        <v>200414.7434791474</v>
+        <v>190570.1440857706</v>
       </c>
       <c r="M6" t="n">
-        <v>159364.0456166995</v>
+        <v>149519.4462233227</v>
       </c>
       <c r="N6" t="n">
-        <v>200414.7434791474</v>
+        <v>190570.1440857706</v>
       </c>
       <c r="O6" t="n">
-        <v>200414.7434791474</v>
+        <v>190570.1440857707</v>
       </c>
       <c r="P6" t="n">
-        <v>200414.7434791473</v>
+        <v>190570.1440857706</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="G3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="H3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="I3" t="n">
         <v>146.571804419537</v>
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
         <v>405.7415719969024</v>
       </c>
       <c r="G4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="I4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
@@ -26825,7 +26825,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="N4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O4" t="n">
         <v>405.7415719969023</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>157.2478500708843</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27460,10 +27460,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27517,13 +27517,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>50.76622319238038</v>
+        <v>144.7394937815719</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>231.8333861825618</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27675,13 +27675,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>144.2829071375616</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>96.3248195465618</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>81.78611079727904</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>123.387056250247</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>152.0346092473755</v>
       </c>
       <c r="C8" t="n">
-        <v>187.1155787390244</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.49070495153072</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27940,7 +27940,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>41.77044293783757</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27949,10 +27949,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>24.98494807699674</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I11" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M11" t="n">
         <v>103.4642265438474</v>
@@ -31776,16 +31776,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
@@ -31794,7 +31794,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I12" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R12" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,40 +31913,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K13" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M13" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O13" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R13" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011537</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046567</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J14" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629222</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645908</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044664</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N14" t="n">
-        <v>105.1383858978454</v>
+        <v>105.1383858978455</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971771</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737673</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134788</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.579369141091552</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809229</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.315267654789193</v>
       </c>
       <c r="H15" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885102</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409526</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253949</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864772</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975596</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100593</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601705</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R15" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422068</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483456</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177522</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412596</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323131</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141111</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039458</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172071</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R16" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118893</v>
       </c>
       <c r="T16" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970204</v>
       </c>
       <c r="U16" t="n">
         <v>0.01441689879536432</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I17" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J17" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M17" t="n">
         <v>103.4642265438474</v>
@@ -32250,16 +32250,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
@@ -32268,7 +32268,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H18" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I18" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O18" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R18" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,40 +32387,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K19" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L19" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M19" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O19" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R19" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011538</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046569</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629223</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645909</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044667</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N20" t="n">
-        <v>105.1383858978454</v>
+        <v>105.1383858978455</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971774</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737674</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.6305766613479</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545226</v>
       </c>
       <c r="S20" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159881</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.579369141091552</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.0471386707680923</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891931</v>
       </c>
       <c r="H21" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885102</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321934</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409527</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.4531809225395</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864773</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975597</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100594</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601706</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436763</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422069</v>
       </c>
       <c r="T21" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259949</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483456</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644384</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177523</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412596</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323132</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141112</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039459</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172072</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225444</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.13234246735009</v>
+        <v>22.13234246735011</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118895</v>
       </c>
       <c r="T22" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970204</v>
       </c>
       <c r="U22" t="n">
         <v>0.01441689879536432</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K11" t="n">
         <v>179.0082576726433</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
@@ -35500,16 +35500,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>340.7791716323001</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L13" t="n">
         <v>66.88568574354744</v>
@@ -35582,10 +35582,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167968</v>
+        <v>38.0611576216797</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726433</v>
@@ -35655,7 +35655,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M14" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N14" t="n">
         <v>313.0722467132387</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680308</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696148</v>
       </c>
       <c r="K15" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>14.50290175900908</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O15" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>179.7282553970214</v>
       </c>
       <c r="Q15" t="n">
         <v>110.3391532330937</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243109</v>
       </c>
       <c r="L16" t="n">
         <v>66.88568574354744</v>
       </c>
       <c r="M16" t="n">
-        <v>81.01564128325168</v>
+        <v>81.0156412832517</v>
       </c>
       <c r="N16" t="n">
         <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576039</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K17" t="n">
         <v>179.0082576726433</v>
@@ -35904,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>177.5326105223149</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900908</v>
       </c>
       <c r="O18" t="n">
-        <v>235.7767460815221</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3391532330937</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L19" t="n">
         <v>66.88568574354744</v>
@@ -36056,10 +36056,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P19" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167971</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L20" t="n">
-        <v>274.8802469209098</v>
+        <v>274.8802469209099</v>
       </c>
       <c r="M20" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N20" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O20" t="n">
-        <v>249.9811662707763</v>
+        <v>249.9811662707764</v>
       </c>
       <c r="P20" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680309</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M21" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.83962944132466</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243112</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354746</v>
       </c>
       <c r="M22" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325171</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962319</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576039</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714793</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>122.5531462318296</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36457,7 +36457,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>48.87891772828636</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
-        <v>197.3722399636396</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>43.54219004597032</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36694,7 +36694,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L30" t="n">
-        <v>19.83962944132475</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>398.571999040688</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>116.0723750175073</v>
+        <v>226.4115282506011</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
@@ -37168,7 +37168,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>154.1911319698549</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>331.4139538013789</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K39" t="n">
-        <v>60.0238843330068</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37633,13 +37633,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900908</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
         <v>110.3391532330937</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
@@ -37870,13 +37870,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>153.881343279064</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>141.323749279139</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>87.03308673054569</v>
+        <v>116.0723750175072</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1191329.973380874</v>
+        <v>1241222.750031873</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111181</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7336969.210339787</v>
+        <v>7336969.210339784</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>75.08620022294134</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,16 +706,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>62.13484214871499</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>106.9554893793478</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>175.0426595591497</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>7.603382851973697</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>169.9088723636406</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.6992324161051</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>130.3832897527008</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>115.8746375175634</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>270.1641393268234</v>
       </c>
       <c r="I11" t="n">
-        <v>45.57109135971024</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>40.48971074646382</v>
       </c>
       <c r="G12" t="n">
-        <v>64.06181481010681</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
         <v>198.8939788055617</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.9147497326712</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>38.97640474817496</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>113.2084585850629</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>327.3508938456701</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>15.04173494155649</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>8.061611165427063</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>38.97640474817501</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>306.4549242895719</v>
       </c>
       <c r="C17" t="n">
-        <v>293.1718696602454</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>147.639854506516</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>56.56925320138669</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.68313739545475</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>35.85275176271248</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>405.7415719969024</v>
       </c>
       <c r="H20" t="n">
-        <v>41.74712847161781</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>101.8122424016785</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>114.4172964634701</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>98.68313739545481</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>99.78974769572881</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
-        <v>211.7304284926917</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>203.3716341943615</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2399,19 +2399,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>153.4340904004342</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>123.8813418776936</v>
       </c>
     </row>
     <row r="25">
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.97640474817497</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>384.4442378163387</v>
+        <v>256.3692321857519</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>161.6162226364488</v>
       </c>
       <c r="T27" t="n">
-        <v>59.06606304088368</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9206407878966</v>
@@ -2699,7 +2699,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.6674229028287</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>399.8885402891419</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>61.71233664604356</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,13 +2873,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>49.84327387331548</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>87.30283807112627</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="U31" t="n">
-        <v>38.97640474817497</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>115.2511420334387</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>96.85493861652184</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>81.12752273267785</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>20.96215394253662</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>9.637108967925757</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>12.35168551462429</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>51.1224864957189</v>
       </c>
       <c r="F35" t="n">
         <v>405.7415719969023</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>34.46500819446488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
@@ -3407,7 +3407,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>29.26107273530876</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>39.19479062707046</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
-        <v>179.3720598661024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.70460631262193</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,19 +3587,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>31.93698207069279</v>
       </c>
       <c r="H39" t="n">
-        <v>41.57898488951658</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>158.2525819861381</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>53.1952895988492</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>200.9841506709361</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,10 +3824,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>14.17115707181026</v>
+        <v>113.4883178883723</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>38.97640474817497</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>35.41912010935325</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>40.12901845644021</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>114.1942888468239</v>
       </c>
       <c r="U45" t="n">
-        <v>140.5149798707072</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>12.35168551462431</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C2" t="n">
-        <v>122.6530896684844</v>
+        <v>753.253405673024</v>
       </c>
       <c r="D2" t="n">
-        <v>122.6530896684844</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E2" t="n">
-        <v>122.6530896684844</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>547.0914794406409</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="C3" t="n">
-        <v>372.6384501595139</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4418,43 +4418,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>754.8517782055949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>754.8517782055949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>547.0914794406409</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>223.6192102101089</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C5" t="n">
-        <v>223.6192102101089</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D5" t="n">
-        <v>223.6192102101089</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E5" t="n">
-        <v>223.6192102101089</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>267.0905363345836</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>251.6332257132351</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4594,25 +4594,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V5" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W5" t="n">
-        <v>467.067986854209</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X5" t="n">
-        <v>223.6192102101089</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y5" t="n">
-        <v>223.6192102101089</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,16 +4655,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>399.5118995681682</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>227.8867759685313</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>509.8046290289238</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
         <v>266.3558523848238</v>
@@ -4831,25 +4831,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>753.253405673024</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219593</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y8" t="n">
-        <v>742.8341567219593</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>487.2836868729568</v>
+        <v>832.3568628311405</v>
       </c>
       <c r="C9" t="n">
-        <v>487.2836868729568</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="D9" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E9" t="n">
-        <v>370.2385984713777</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
         <v>223.7040404982626</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>248.2447175439888</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>825.1391026004928</v>
+        <v>715.1923675008893</v>
       </c>
       <c r="C11" t="n">
-        <v>825.1391026004928</v>
+        <v>715.1923675008893</v>
       </c>
       <c r="D11" t="n">
-        <v>825.1391026004928</v>
+        <v>715.1923675008893</v>
       </c>
       <c r="E11" t="n">
-        <v>825.1391026004928</v>
+        <v>715.1923675008893</v>
       </c>
       <c r="F11" t="n">
-        <v>825.1391026004928</v>
+        <v>715.1923675008893</v>
       </c>
       <c r="G11" t="n">
-        <v>415.29913088645</v>
+        <v>305.3523957868465</v>
       </c>
       <c r="H11" t="n">
-        <v>78.49073117360092</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975219</v>
@@ -5044,10 +5044,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
         <v>838.8947028941457</v>
@@ -5068,25 +5068,25 @@
         <v>1508.970645214178</v>
       </c>
       <c r="S11" t="n">
-        <v>1508.970645214178</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1508.970645214178</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1508.970645214178</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V11" t="n">
-        <v>1177.907757870607</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W11" t="n">
-        <v>825.1391026004928</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X11" t="n">
-        <v>825.1391026004928</v>
+        <v>715.1923675008893</v>
       </c>
       <c r="Y11" t="n">
-        <v>825.1391026004928</v>
+        <v>715.1923675008893</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>207.4617876008817</v>
+        <v>247.81105276458</v>
       </c>
       <c r="C12" t="n">
-        <v>207.4617876008817</v>
+        <v>73.35802348345302</v>
       </c>
       <c r="D12" t="n">
-        <v>207.4617876008817</v>
+        <v>73.35802348345302</v>
       </c>
       <c r="E12" t="n">
-        <v>207.4617876008817</v>
+        <v>73.35802348345302</v>
       </c>
       <c r="F12" t="n">
-        <v>207.4617876008817</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G12" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H12" t="n">
         <v>32.45932575975219</v>
@@ -5120,22 +5120,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K12" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L12" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M12" t="n">
-        <v>729.6092173456784</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N12" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O12" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P12" t="n">
         <v>1622.966287987609</v>
@@ -5147,25 +5147,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1340.665718993834</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>1112.463051531313</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V12" t="n">
-        <v>877.31094329957</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W12" t="n">
-        <v>623.0735865713684</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X12" t="n">
-        <v>415.2220863658356</v>
+        <v>455.571351529534</v>
       </c>
       <c r="Y12" t="n">
-        <v>207.4617876008817</v>
+        <v>247.81105276458</v>
       </c>
     </row>
     <row r="13">
@@ -5202,7 +5202,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5238,13 +5238,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>748.9050468889764</v>
+        <v>1197.050067012451</v>
       </c>
       <c r="C14" t="n">
-        <v>748.9050468889764</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D14" t="n">
-        <v>748.9050468889764</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E14" t="n">
-        <v>363.1167942907321</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G14" t="n">
         <v>32.45932575975219</v>
@@ -5284,7 +5284,7 @@
         <v>247.358046901132</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M14" t="n">
         <v>838.8947028941458</v>
@@ -5305,25 +5305,25 @@
         <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1508.970645214178</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1508.970645214178</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U14" t="n">
-        <v>1508.970645214178</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V14" t="n">
-        <v>1508.970645214178</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W14" t="n">
-        <v>1508.970645214178</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X14" t="n">
-        <v>1135.504886953098</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="Y14" t="n">
-        <v>1135.504886953098</v>
+        <v>1311.402045381201</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>543.0967044283518</v>
+        <v>683.86616989083</v>
       </c>
       <c r="C15" t="n">
-        <v>368.6436751472248</v>
+        <v>668.6724982326921</v>
       </c>
       <c r="D15" t="n">
-        <v>368.6436751472248</v>
+        <v>519.7380885714408</v>
       </c>
       <c r="E15" t="n">
-        <v>368.6436751472248</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="F15" t="n">
         <v>360.5006335659854</v>
@@ -5357,7 +5357,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384405</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K15" t="n">
         <v>236.9655055809358</v>
@@ -5369,10 +5369,10 @@
         <v>934.1153971668621</v>
       </c>
       <c r="N15" t="n">
-        <v>1335.799553443796</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O15" t="n">
-        <v>1335.799553443796</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
         <v>1513.730526286847</v>
@@ -5381,28 +5381,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.96628798761</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1422.063279093103</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U15" t="n">
-        <v>1193.860611630581</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V15" t="n">
-        <v>958.7085033988385</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="W15" t="n">
-        <v>958.7085033988385</v>
+        <v>891.6264686557838</v>
       </c>
       <c r="X15" t="n">
-        <v>750.8570031933057</v>
+        <v>891.6264686557838</v>
       </c>
       <c r="Y15" t="n">
-        <v>543.0967044283518</v>
+        <v>683.86616989083</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.82943156598958</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C16" t="n">
-        <v>71.82943156598958</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D16" t="n">
-        <v>71.82943156598958</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E16" t="n">
-        <v>71.82943156598958</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="F16" t="n">
-        <v>71.82943156598958</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="G16" t="n">
-        <v>71.82943156598958</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="H16" t="n">
         <v>32.45932575975219</v>
@@ -5439,7 +5439,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191287</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5448,40 +5448,40 @@
         <v>187.235757098444</v>
       </c>
       <c r="N16" t="n">
-        <v>270.968751228571</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O16" t="n">
         <v>332.2934283710737</v>
       </c>
       <c r="P16" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>71.82943156598958</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X16" t="n">
-        <v>71.82943156598958</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.82943156598958</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>328.5925274367677</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="C17" t="n">
-        <v>32.45932575975219</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="D17" t="n">
-        <v>32.45932575975219</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="E17" t="n">
-        <v>32.45932575975219</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975219</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H17" t="n">
         <v>32.45932575975219</v>
@@ -5518,10 +5518,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M17" t="n">
         <v>838.8947028941458</v>
@@ -5557,10 +5557,10 @@
         <v>1088.658125761969</v>
       </c>
       <c r="X17" t="n">
-        <v>715.1923675008895</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="Y17" t="n">
-        <v>715.1923675008895</v>
+        <v>1088.658125761969</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>989.6600854869342</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="C18" t="n">
-        <v>815.2070562058072</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D18" t="n">
-        <v>666.272646544556</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E18" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F18" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L18" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>934.1153971668621</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082811</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O18" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.96628798761</v>
@@ -5621,25 +5621,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S18" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T18" t="n">
-        <v>1254.561044051269</v>
+        <v>1473.835121819412</v>
       </c>
       <c r="U18" t="n">
-        <v>1254.561044051269</v>
+        <v>1245.63245435689</v>
       </c>
       <c r="V18" t="n">
-        <v>1254.561044051269</v>
+        <v>1010.480346125147</v>
       </c>
       <c r="W18" t="n">
-        <v>1197.420384251888</v>
+        <v>756.2429893969456</v>
       </c>
       <c r="X18" t="n">
-        <v>1197.420384251888</v>
+        <v>548.3914891914128</v>
       </c>
       <c r="Y18" t="n">
-        <v>989.6600854869342</v>
+        <v>340.6311904264589</v>
       </c>
     </row>
     <row r="19">
@@ -5676,7 +5676,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5685,34 +5685,34 @@
         <v>187.235757098444</v>
       </c>
       <c r="N19" t="n">
-        <v>270.9687512285709</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O19" t="n">
         <v>332.2934283710737</v>
       </c>
       <c r="P19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R19" t="n">
-        <v>361.2466016029501</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="S19" t="n">
-        <v>361.2466016029501</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W19" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X19" t="n">
         <v>32.45932575975219</v>
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1032.3898425272</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="C20" t="n">
-        <v>1032.3898425272</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="D20" t="n">
-        <v>674.1241439204493</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="E20" t="n">
-        <v>674.1241439204493</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F20" t="n">
-        <v>674.1241439204493</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G20" t="n">
-        <v>264.2841722064065</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521511</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
         <v>247.358046901132</v>
@@ -5761,7 +5761,7 @@
         <v>519.4894913528328</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T20" t="n">
-        <v>1286.226725594946</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U20" t="n">
-        <v>1032.3898425272</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V20" t="n">
-        <v>1032.3898425272</v>
+        <v>815.3225979570608</v>
       </c>
       <c r="W20" t="n">
-        <v>1032.3898425272</v>
+        <v>815.3225979570608</v>
       </c>
       <c r="X20" t="n">
-        <v>1032.3898425272</v>
+        <v>815.3225979570608</v>
       </c>
       <c r="Y20" t="n">
-        <v>1032.3898425272</v>
+        <v>815.3225979570608</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>661.618777680701</v>
+        <v>527.8602733037262</v>
       </c>
       <c r="C21" t="n">
-        <v>487.165748399574</v>
+        <v>527.8602733037262</v>
       </c>
       <c r="D21" t="n">
-        <v>338.2313387383227</v>
+        <v>527.8602733037262</v>
       </c>
       <c r="E21" t="n">
-        <v>178.9938837328672</v>
+        <v>368.6228182982707</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975219</v>
@@ -5843,10 +5843,10 @@
         <v>729.6092173456784</v>
       </c>
       <c r="N21" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O21" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
         <v>1622.96628798761</v>
@@ -5858,25 +5858,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.96628798761</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1520.125639097025</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U21" t="n">
-        <v>1291.922971634503</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="V21" t="n">
-        <v>1291.922971634503</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W21" t="n">
-        <v>1037.685614906302</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="X21" t="n">
-        <v>829.8341147007691</v>
+        <v>903.8359090887482</v>
       </c>
       <c r="Y21" t="n">
-        <v>829.8341147007691</v>
+        <v>696.0756103237943</v>
       </c>
     </row>
     <row r="22">
@@ -5913,43 +5913,43 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191287</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0302722280249</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>187.2357570984441</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>270.968751228571</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710738</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>261.5666648398646</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>32.45932575975219</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="W22" t="n">
-        <v>32.45932575975219</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X22" t="n">
         <v>32.45932575975219</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1400.222368368377</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C23" t="n">
-        <v>1400.222368368377</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D23" t="n">
-        <v>1041.956669761627</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E23" t="n">
-        <v>656.1684171633826</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F23" t="n">
-        <v>246.3284454493398</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G23" t="n">
-        <v>246.3284454493398</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H23" t="n">
         <v>32.45932575975219</v>
@@ -5992,49 +5992,49 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T23" t="n">
-        <v>1400.222368368377</v>
+        <v>1105.976152255584</v>
       </c>
       <c r="U23" t="n">
-        <v>1400.222368368377</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="V23" t="n">
-        <v>1400.222368368377</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="W23" t="n">
-        <v>1400.222368368377</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="X23" t="n">
-        <v>1400.222368368377</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="Y23" t="n">
-        <v>1400.222368368377</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>206.9123550408792</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="C24" t="n">
-        <v>32.45932575975219</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975219</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975219</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975219</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G24" t="n">
         <v>32.45932575975219</v>
@@ -6068,52 +6068,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K24" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L24" t="n">
-        <v>208.2166101768439</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M24" t="n">
-        <v>607.634746781107</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N24" t="n">
-        <v>1009.31890305804</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O24" t="n">
-        <v>1332.332410232598</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1574.576159436606</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1300.480123248367</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U24" t="n">
-        <v>1072.277455785845</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V24" t="n">
-        <v>837.1253475541027</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W24" t="n">
-        <v>582.8879908259012</v>
+        <v>918.9261272237986</v>
       </c>
       <c r="X24" t="n">
-        <v>582.8879908259012</v>
+        <v>918.9261272237986</v>
       </c>
       <c r="Y24" t="n">
-        <v>375.1276920609473</v>
+        <v>793.7934586604717</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="H25" t="n">
         <v>32.45932575975219</v>
@@ -6171,28 +6171,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>757.595238418398</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="C26" t="n">
-        <v>757.595238418398</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="D26" t="n">
-        <v>757.595238418398</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="E26" t="n">
-        <v>757.595238418398</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="F26" t="n">
-        <v>757.595238418398</v>
+        <v>628.2265458622496</v>
       </c>
       <c r="G26" t="n">
         <v>369.2677254726013</v>
@@ -6226,10 +6226,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
         <v>519.4894913528326</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1088.658125761969</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V26" t="n">
-        <v>757.595238418398</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="W26" t="n">
-        <v>757.595238418398</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="X26" t="n">
-        <v>757.595238418398</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="Y26" t="n">
-        <v>757.595238418398</v>
+        <v>1038.066517576292</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>430.0996666543699</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C27" t="n">
-        <v>430.0996666543699</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D27" t="n">
-        <v>281.1652569931186</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E27" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F27" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G27" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
         <v>32.45932575975218</v>
@@ -6308,22 +6308,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L27" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M27" t="n">
-        <v>905.36650176277</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6332,25 +6332,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1459.717578253822</v>
       </c>
       <c r="T27" t="n">
-        <v>1563.303598047323</v>
+        <v>1459.717578253822</v>
       </c>
       <c r="U27" t="n">
-        <v>1335.100930584801</v>
+        <v>1231.514910791301</v>
       </c>
       <c r="V27" t="n">
-        <v>1099.948822353058</v>
+        <v>996.3628025595581</v>
       </c>
       <c r="W27" t="n">
-        <v>845.7114656248566</v>
+        <v>742.1254458313565</v>
       </c>
       <c r="X27" t="n">
-        <v>637.8599654193238</v>
+        <v>742.1254458313565</v>
       </c>
       <c r="Y27" t="n">
-        <v>430.0996666543699</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
         <v>32.45932575975218</v>
@@ -6417,19 +6417,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>846.2271159476757</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="C29" t="n">
-        <v>846.2271159476757</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="D29" t="n">
-        <v>846.2271159476757</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E29" t="n">
-        <v>846.2271159476757</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F29" t="n">
-        <v>436.3871442336329</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G29" t="n">
         <v>32.45932575975218</v>
@@ -6463,10 +6463,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521507</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
         <v>519.4894913528326</v>
@@ -6478,37 +6478,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O29" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P29" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.96628798761</v>
+        <v>1560.630594405747</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.96628798761</v>
+        <v>1560.630594405747</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.96628798761</v>
+        <v>1560.630594405747</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.96628798761</v>
+        <v>1560.630594405747</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.96628798761</v>
+        <v>1560.630594405747</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.96628798761</v>
+        <v>1560.630594405747</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.966287987609</v>
+        <v>1187.164836144667</v>
       </c>
       <c r="Y29" t="n">
-        <v>1232.826956011797</v>
+        <v>1187.164836144667</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32.45932575975218</v>
+        <v>416.496551332512</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975218</v>
+        <v>242.0435220513849</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975218</v>
+        <v>242.0435220513849</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975218</v>
+        <v>82.80606704592944</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975218</v>
+        <v>82.80606704592944</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975218</v>
+        <v>82.80606704592944</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975218</v>
+        <v>82.80606704592944</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975218</v>
@@ -6545,22 +6545,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L30" t="n">
-        <v>505.948365158507</v>
+        <v>147.3709770270844</v>
       </c>
       <c r="M30" t="n">
-        <v>905.36650176277</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N30" t="n">
-        <v>1299.952780813051</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O30" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
@@ -6569,25 +6569,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1534.78160306728</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1333.878594172773</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U30" t="n">
-        <v>1105.675926710251</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V30" t="n">
-        <v>870.5238184785085</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="W30" t="n">
-        <v>616.2864617503069</v>
+        <v>1000.323687323067</v>
       </c>
       <c r="X30" t="n">
-        <v>408.4349615447741</v>
+        <v>792.4721871175338</v>
       </c>
       <c r="Y30" t="n">
-        <v>200.6746627798202</v>
+        <v>584.71188835258</v>
       </c>
     </row>
     <row r="31">
@@ -6651,7 +6651,7 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U31" t="n">
         <v>321.8764957967128</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.45932575975218</v>
+        <v>534.6628733412679</v>
       </c>
       <c r="C32" t="n">
-        <v>32.45932575975218</v>
+        <v>534.6628733412679</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975218</v>
+        <v>534.6628733412679</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975218</v>
+        <v>148.8746207430236</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>148.8746207430236</v>
       </c>
       <c r="G32" t="n">
         <v>32.45932575975218</v>
@@ -6700,10 +6700,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L32" t="n">
         <v>519.4894913528326</v>
@@ -6715,37 +6715,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S32" t="n">
         <v>1311.402045381201</v>
       </c>
       <c r="T32" t="n">
-        <v>1088.658125761969</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U32" t="n">
-        <v>834.8212426942227</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V32" t="n">
-        <v>503.7583553506521</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W32" t="n">
-        <v>405.9250840208321</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X32" t="n">
-        <v>32.45932575975218</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="Y32" t="n">
-        <v>32.45932575975218</v>
+        <v>921.2627134053896</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>206.9123550408792</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975218</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975218</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E33" t="n">
         <v>32.45932575975218</v>
@@ -6785,16 +6785,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>256.6067387278472</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>656.0248753321102</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P33" t="n">
         <v>1622.966287987609</v>
@@ -6806,25 +6806,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.019295328339</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1340.116286433832</v>
+        <v>1434.290160074526</v>
       </c>
       <c r="U33" t="n">
-        <v>1111.91361897131</v>
+        <v>1206.087492612004</v>
       </c>
       <c r="V33" t="n">
-        <v>876.7615107395675</v>
+        <v>970.9353843802614</v>
       </c>
       <c r="W33" t="n">
-        <v>622.5241540113659</v>
+        <v>716.6980276520599</v>
       </c>
       <c r="X33" t="n">
-        <v>414.6726538058331</v>
+        <v>508.846527446527</v>
       </c>
       <c r="Y33" t="n">
-        <v>206.9123550408792</v>
+        <v>508.846527446527</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="C34" t="n">
-        <v>192.3104186750432</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="D34" t="n">
-        <v>42.19377926270749</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975218</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975218</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G34" t="n">
         <v>32.45932575975218</v>
@@ -6888,22 +6888,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="U34" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="V34" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="W34" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="X34" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="Y34" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>828.0875500720392</v>
+        <v>862.9006896624076</v>
       </c>
       <c r="C35" t="n">
-        <v>828.0875500720392</v>
+        <v>493.9381727219958</v>
       </c>
       <c r="D35" t="n">
-        <v>828.0875500720392</v>
+        <v>493.9381727219958</v>
       </c>
       <c r="E35" t="n">
-        <v>442.299297473795</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
@@ -6979,10 +6979,10 @@
         <v>1622.966287987609</v>
       </c>
       <c r="X35" t="n">
-        <v>1249.50052972653</v>
+        <v>1249.500529726529</v>
       </c>
       <c r="Y35" t="n">
-        <v>1214.687390136161</v>
+        <v>1249.500529726529</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>345.324728281709</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C36" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D36" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E36" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F36" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K36" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L36" t="n">
-        <v>389.6147262310921</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M36" t="n">
-        <v>789.0328628353551</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N36" t="n">
-        <v>1190.717019112288</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7043,25 +7043,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T36" t="n">
-        <v>1422.063279093103</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U36" t="n">
-        <v>1193.860611630581</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V36" t="n">
-        <v>958.7085033988383</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W36" t="n">
-        <v>929.1518642722638</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X36" t="n">
-        <v>721.3003640667309</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y36" t="n">
-        <v>513.5400653017771</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7125,22 +7125,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U37" t="n">
-        <v>72.05002336285366</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V37" t="n">
-        <v>72.05002336285366</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.4831963284439</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="C38" t="n">
-        <v>623.4831963284439</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="D38" t="n">
-        <v>623.4831963284439</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E38" t="n">
-        <v>623.4831963284439</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F38" t="n">
-        <v>213.643224614401</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G38" t="n">
         <v>32.45932575975219</v>
@@ -7177,10 +7177,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
         <v>838.8947028941458</v>
@@ -7189,37 +7189,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P38" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.96628798761</v>
+        <v>1583.870726055668</v>
       </c>
       <c r="T38" t="n">
-        <v>1400.222368368377</v>
+        <v>1583.870726055668</v>
       </c>
       <c r="U38" t="n">
-        <v>1400.222368368377</v>
+        <v>1583.870726055668</v>
       </c>
       <c r="V38" t="n">
-        <v>1400.222368368377</v>
+        <v>1583.870726055668</v>
       </c>
       <c r="W38" t="n">
-        <v>1400.222368368377</v>
+        <v>1583.870726055668</v>
       </c>
       <c r="X38" t="n">
-        <v>1400.222368368377</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="Y38" t="n">
-        <v>1010.083036392566</v>
+        <v>1210.404967794588</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>361.8050832977086</v>
+        <v>321.5470195745886</v>
       </c>
       <c r="C39" t="n">
-        <v>361.8050832977086</v>
+        <v>321.5470195745886</v>
       </c>
       <c r="D39" t="n">
-        <v>212.8706736364573</v>
+        <v>321.5470195745886</v>
       </c>
       <c r="E39" t="n">
-        <v>212.8706736364573</v>
+        <v>321.5470195745886</v>
       </c>
       <c r="F39" t="n">
-        <v>212.8706736364573</v>
+        <v>175.0124616014736</v>
       </c>
       <c r="G39" t="n">
-        <v>74.45830039562753</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975219</v>
@@ -7256,49 +7256,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L39" t="n">
-        <v>534.697260562599</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M39" t="n">
-        <v>934.1153971668621</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082811</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U39" t="n">
-        <v>1227.261385483254</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V39" t="n">
-        <v>992.109277251511</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W39" t="n">
-        <v>737.8719205233094</v>
+        <v>905.3741555651434</v>
       </c>
       <c r="X39" t="n">
-        <v>530.0204203177766</v>
+        <v>697.5226553596106</v>
       </c>
       <c r="Y39" t="n">
-        <v>530.0204203177766</v>
+        <v>489.7623565946566</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>201.3955086876591</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D40" t="n">
         <v>32.45932575975219</v>
@@ -7359,25 +7359,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>201.3955086876591</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>201.3955086876591</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>201.3955086876591</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V40" t="n">
-        <v>201.3955086876591</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W40" t="n">
-        <v>201.3955086876591</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X40" t="n">
-        <v>201.3955086876591</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.3955086876591</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>811.2618144142067</v>
+        <v>593.7393179735088</v>
       </c>
       <c r="C41" t="n">
-        <v>442.299297473795</v>
+        <v>593.7393179735088</v>
       </c>
       <c r="D41" t="n">
-        <v>442.299297473795</v>
+        <v>235.4736193667583</v>
       </c>
       <c r="E41" t="n">
-        <v>442.299297473795</v>
+        <v>235.4736193667583</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975219</v>
+        <v>235.4736193667583</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975219</v>
@@ -7411,16 +7411,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K41" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7438,25 +7438,25 @@
         <v>1508.970645214178</v>
       </c>
       <c r="S41" t="n">
-        <v>1508.970645214178</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T41" t="n">
-        <v>1508.970645214178</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U41" t="n">
-        <v>1255.133762146432</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V41" t="n">
-        <v>1255.133762146432</v>
+        <v>980.3391580376307</v>
       </c>
       <c r="W41" t="n">
-        <v>1255.133762146432</v>
+        <v>980.3391580376307</v>
       </c>
       <c r="X41" t="n">
-        <v>1255.133762146432</v>
+        <v>980.3391580376307</v>
       </c>
       <c r="Y41" t="n">
-        <v>864.99443017062</v>
+        <v>980.3391580376307</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.0842197075859</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C42" t="n">
-        <v>340.6311904264589</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D42" t="n">
-        <v>191.6967807652077</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E42" t="n">
         <v>32.45932575975219</v>
@@ -7490,22 +7490,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K42" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L42" t="n">
-        <v>505.9483651585071</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M42" t="n">
-        <v>905.3665017627701</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N42" t="n">
-        <v>1057.709031609043</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O42" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P42" t="n">
         <v>1622.966287987609</v>
@@ -7520,22 +7520,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1608.651987915074</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U42" t="n">
-        <v>1380.449320452552</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V42" t="n">
-        <v>1145.297212220809</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W42" t="n">
-        <v>891.0598554926078</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X42" t="n">
-        <v>891.0598554926078</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.2995567276539</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="43">
@@ -7572,7 +7572,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L43" t="n">
         <v>107.0302722280248</v>
@@ -7596,16 +7596,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U43" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V43" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W43" t="n">
         <v>32.45932575975219</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1232.826956011798</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="C44" t="n">
-        <v>863.864439071386</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="D44" t="n">
-        <v>863.864439071386</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="E44" t="n">
-        <v>478.0761864731417</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F44" t="n">
-        <v>68.23621475909891</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G44" t="n">
-        <v>68.23621475909891</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H44" t="n">
-        <v>68.23621475909891</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
@@ -7651,10 +7651,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M44" t="n">
         <v>838.8947028941457</v>
@@ -7663,37 +7663,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P44" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q44" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V44" t="n">
-        <v>1622.966287987609</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="W44" t="n">
-        <v>1622.966287987609</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="X44" t="n">
-        <v>1622.966287987609</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="Y44" t="n">
-        <v>1232.826956011798</v>
+        <v>1137.373395793395</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K45" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L45" t="n">
-        <v>147.3709770270843</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M45" t="n">
-        <v>546.7891136313473</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7754,25 +7754,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T45" t="n">
-        <v>1422.063279093103</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U45" t="n">
-        <v>1280.128955991378</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V45" t="n">
-        <v>1044.976847759636</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W45" t="n">
-        <v>790.739491031434</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X45" t="n">
-        <v>582.8879908259012</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y45" t="n">
-        <v>375.1276920609473</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F46" t="n">
-        <v>214.3566541050398</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G46" t="n">
-        <v>44.93577577452422</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H46" t="n">
-        <v>44.93577577452422</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I46" t="n">
         <v>32.45932575975219</v>
@@ -7839,19 +7839,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>369.8307175917693</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258646</v>
       </c>
       <c r="O15" t="n">
-        <v>67.58604940343851</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>253.5003682753346</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344736</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026373</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>63.84875129258644</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344736</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026371</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>380.7598033349567</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>244.1351504444139</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>70.10119885733472</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304798</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>148.6170522310418</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>92.88803957954769</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>186.173573874842</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>447.9178485742653</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,19 +10433,19 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
-        <v>296.5127271079358</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q33" t="n">
         <v>99.73813450275541</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>224.2923308271896</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>447.9178485742653</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>73.77211287831322</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>63.84875129258646</v>
+        <v>351.720515047995</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>203.2271928126414</v>
+        <v>418.8785602873039</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
-        <v>186.1735738748418</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304797</v>
+        <v>351.7205150479947</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23275,10 +23275,10 @@
         <v>8.971932133631583</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>63.27617638889723</v>
       </c>
       <c r="I11" t="n">
-        <v>142.1883781508597</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23348,13 +23348,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>104.5795016469201</v>
       </c>
       <c r="G12" t="n">
-        <v>72.96643469831464</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.91723044926614</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23439,7 +23439,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
         <v>165.4090611368575</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>179.6082486039198</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>269.5253830784176</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>79.52515189604134</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H14" t="n">
         <v>333.4403157157206</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,16 +23576,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>157.6667640467593</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>137.0076012279568</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
         <v>165.4090611368575</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>76.27891737390866</v>
       </c>
       <c r="C17" t="n">
-        <v>72.10102211076219</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23746,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>187.7594695105699</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,22 +23861,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>51.25412429904566</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>195.1257299595329</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>64.02970078434429</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>66.72592374140275</v>
       </c>
       <c r="S19" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.3046124576955</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>186.7332506408622</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>346.8810899007681</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,10 +23986,10 @@
         <v>8.971932133631526</v>
       </c>
       <c r="H20" t="n">
-        <v>291.6931872441028</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24050,10 +24050,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>97.08173640388314</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>91.35568874000738</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24150,7 +24150,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.02970078434427</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>120.7272614763986</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>152.3478956280992</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24211,19 +24211,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>1.134473744809043</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H23" t="n">
-        <v>121.7098872230289</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>17.14484622867832</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24287,19 +24287,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>45.45988840512749</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>81.80135389961075</v>
       </c>
     </row>
     <row r="25">
@@ -24381,7 +24381,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>120.9008132556202</v>
       </c>
       <c r="I25" t="n">
         <v>147.5019580580808</v>
@@ -24411,7 +24411,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R25" t="n">
-        <v>126.4326563886826</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
         <v>219.4103988718534</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
-        <v>30.26926631419519</v>
+        <v>158.3442719447821</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24572,10 +24572,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>4.21099005496697</v>
       </c>
       <c r="T27" t="n">
-        <v>139.827915764678</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24618,7 +24618,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>14.20979510096655</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I28" t="n">
         <v>147.5019580580808</v>
@@ -24657,13 +24657,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,7 +24694,7 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
-        <v>14.82496384139199</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>51.14334969965389</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,13 +24761,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24779,7 +24779,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>28.69874893382256</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>78.52437462028948</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>187.8398609411363</v>
       </c>
       <c r="U31" t="n">
-        <v>247.3282077095205</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>299.4623620970952</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>252.3860301008912</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25046,10 +25046,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>84.69968995873791</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>177.931824863025</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>136.7968536786434</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
@@ -25128,7 +25128,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>214.464580174687</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25156,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>330.8078835765428</v>
       </c>
       <c r="F35" t="n">
-        <v>1.1344737448091</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G35" t="n">
         <v>414.7135041305339</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>351.7729304615887</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25247,7 +25247,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
         <v>109.1906224126114</v>
@@ -25283,7 +25283,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>222.4339104256108</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>187.8398609411363</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>247.3282077095205</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>1.134473744809043</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G38" t="n">
-        <v>235.3414442644315</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
@@ -25441,10 +25441,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>156.8883075220246</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25475,19 +25475,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>105.0912674377287</v>
       </c>
       <c r="H39" t="n">
-        <v>67.61163752309477</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25520,7 +25520,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>109.6390682700374</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,7 +25599,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>61.15781688571528</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>329.5385520646314</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>213.7293534595978</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25712,10 +25712,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25760,7 +25760,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>184.7228217337514</v>
+        <v>85.40566091718938</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>180.2156082447829</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>247.3282077095205</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,25 +25867,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>152.3403494012167</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
@@ -25924,16 +25924,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>329.6020822220288</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>84.69968995873781</v>
       </c>
       <c r="U45" t="n">
-        <v>85.40566091718941</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
-        <v>135.1502725434565</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J46" t="n">
         <v>74.67247646141475</v>
@@ -26079,13 +26079,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519116.0846301697</v>
+        <v>519116.0846301693</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>519116.0846301694</v>
+        <v>519116.0846301697</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>519116.0846301696</v>
+        <v>519116.0846301693</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>519116.0846301698</v>
+        <v>519116.0846301693</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>519116.0846301698</v>
+        <v>519116.0846301697</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>519116.0846301694</v>
+        <v>519116.0846301692</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>519116.0846301698</v>
+        <v>519116.0846301693</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>519116.0846301693</v>
+        <v>519116.0846301694</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519116.0846301698</v>
+        <v>519116.0846301694</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
         <v>245673.2316242976</v>
@@ -26331,31 +26331,31 @@
         <v>245673.2316242976</v>
       </c>
       <c r="H2" t="n">
-        <v>245673.2316242975</v>
+        <v>245673.2316242976</v>
       </c>
       <c r="I2" t="n">
-        <v>245673.2316242975</v>
+        <v>245673.2316242976</v>
       </c>
       <c r="J2" t="n">
         <v>245673.2316242976</v>
       </c>
       <c r="K2" t="n">
+        <v>245673.2316242974</v>
+      </c>
+      <c r="L2" t="n">
+        <v>245673.2316242976</v>
+      </c>
+      <c r="M2" t="n">
+        <v>245673.2316242974</v>
+      </c>
+      <c r="N2" t="n">
         <v>245673.2316242975</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>245673.2316242975</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>245673.2316242975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>245673.2316242976</v>
-      </c>
-      <c r="O2" t="n">
-        <v>245673.2316242976</v>
-      </c>
-      <c r="P2" t="n">
-        <v>245673.2316242976</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252468</v>
+        <v>166940.1701252467</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244792</v>
+        <v>41050.69786244791</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295860.2172754403</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="C4" t="n">
-        <v>295860.2172754403</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
         <v>295860.2172754402</v>
@@ -26429,7 +26429,7 @@
         <v>17394.13523139261</v>
       </c>
       <c r="F4" t="n">
-        <v>17394.1352313926</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="G4" t="n">
         <v>17394.13523139261</v>
@@ -26450,7 +26450,7 @@
         <v>17394.13523139261</v>
       </c>
       <c r="M4" t="n">
-        <v>17394.13523139261</v>
+        <v>17394.1352313926</v>
       </c>
       <c r="N4" t="n">
         <v>17394.13523139261</v>
@@ -26459,7 +26459,7 @@
         <v>17394.13523139261</v>
       </c>
       <c r="P4" t="n">
-        <v>17394.1352313926</v>
+        <v>17394.13523139261</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>27864.35291375757</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375758</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375757</v>
@@ -26502,7 +26502,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375757</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47188.10010121333</v>
+        <v>47188.10010121339</v>
       </c>
       <c r="C6" t="n">
-        <v>127957.5316327611</v>
+        <v>127957.5316327612</v>
       </c>
       <c r="D6" t="n">
-        <v>127957.5316327611</v>
+        <v>127957.5316327612</v>
       </c>
       <c r="E6" t="n">
-        <v>23629.97396052386</v>
+        <v>32490.11341456297</v>
       </c>
       <c r="F6" t="n">
-        <v>190570.1440857706</v>
+        <v>199430.2835398098</v>
       </c>
       <c r="G6" t="n">
-        <v>190570.1440857707</v>
+        <v>199430.2835398098</v>
       </c>
       <c r="H6" t="n">
-        <v>190570.1440857706</v>
+        <v>199430.2835398097</v>
       </c>
       <c r="I6" t="n">
-        <v>190570.1440857706</v>
+        <v>199430.2835398097</v>
       </c>
       <c r="J6" t="n">
-        <v>127510.2014866644</v>
+        <v>136370.3409407035</v>
       </c>
       <c r="K6" t="n">
-        <v>190570.1440857706</v>
+        <v>199430.2835398096</v>
       </c>
       <c r="L6" t="n">
-        <v>190570.1440857706</v>
+        <v>199430.2835398098</v>
       </c>
       <c r="M6" t="n">
-        <v>149519.4462233227</v>
+        <v>158379.5856773617</v>
       </c>
       <c r="N6" t="n">
-        <v>190570.1440857706</v>
+        <v>199430.2835398096</v>
       </c>
       <c r="O6" t="n">
-        <v>190570.1440857707</v>
+        <v>199430.2835398096</v>
       </c>
       <c r="P6" t="n">
-        <v>190570.1440857706</v>
+        <v>199430.2835398097</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="G3" t="n">
         <v>146.5718044195371</v>
       </c>
       <c r="H3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
         <v>146.571804419537</v>
@@ -26776,7 +26776,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="O3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="P3" t="n">
         <v>146.5718044195371</v>
@@ -26810,7 +26810,7 @@
         <v>405.7415719969024</v>
       </c>
       <c r="I4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
@@ -26825,7 +26825,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="N4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O4" t="n">
         <v>405.7415719969023</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>166.5678786463162</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>331.7898455187701</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>104.3983415011523</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>144.7394937815719</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>231.8333861825618</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>331.8714192637934</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,16 +27751,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>81.78611079727904</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>123.387056250247</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>152.0346092473755</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27903,19 +27903,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>52.64063978314516</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>36.14989389716655</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>41.77044293783757</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28025,19 +28025,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
         <v>103.4642265438474</v>
@@ -31776,16 +31776,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
@@ -31794,7 +31794,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,40 +31913,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M13" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011537</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046567</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I14" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629222</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645908</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044664</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N14" t="n">
-        <v>105.1383858978455</v>
+        <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971771</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737673</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134788</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091552</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809229</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.315267654789193</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
-        <v>3.044821823885102</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409526</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253949</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864772</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975596</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100593</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601705</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326612</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R15" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422068</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483456</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177522</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412596</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323131</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039458</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172071</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118893</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T16" t="n">
-        <v>1.129323738970204</v>
+        <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
         <v>0.01441689879536432</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011537</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046567</v>
       </c>
       <c r="I17" t="n">
         <v>22.716420059836</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629222</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645908</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044664</v>
       </c>
       <c r="M17" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N17" t="n">
-        <v>105.1383858978454</v>
+        <v>105.1383858978455</v>
       </c>
       <c r="O17" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971771</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737673</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134788</v>
       </c>
       <c r="R17" t="n">
         <v>37.01343159545225</v>
@@ -32265,10 +32265,10 @@
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.579369141091551</v>
+        <v>2.579369141091552</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809229</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.315267654789193</v>
       </c>
       <c r="H18" t="n">
-        <v>3.044821823885101</v>
+        <v>3.044821823885102</v>
       </c>
       <c r="I18" t="n">
         <v>10.85461004427704</v>
@@ -32317,31 +32317,31 @@
         <v>29.78587961321933</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409526</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253949</v>
       </c>
       <c r="M18" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864772</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975596</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100593</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601705</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R18" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422068</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32384,31 +32384,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483456</v>
       </c>
       <c r="H19" t="n">
         <v>2.349954503644383</v>
       </c>
       <c r="I19" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177522</v>
       </c>
       <c r="J19" t="n">
         <v>18.68670365525803</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412596</v>
       </c>
       <c r="L19" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323131</v>
       </c>
       <c r="M19" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141111</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039458</v>
       </c>
       <c r="O19" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172071</v>
       </c>
       <c r="P19" t="n">
         <v>31.96707026225443</v>
@@ -32420,10 +32420,10 @@
         <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118893</v>
       </c>
       <c r="T19" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970204</v>
       </c>
       <c r="U19" t="n">
         <v>0.01441689879536432</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011538</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046569</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629223</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645909</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044667</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N20" t="n">
-        <v>105.1383858978455</v>
+        <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971774</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737674</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.6305766613479</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545226</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
-        <v>13.42715575159881</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091552</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0471386707680923</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891931</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.044821823885102</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321934</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409527</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.4531809225395</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864773</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975597</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100594</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601706</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326612</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436763</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422069</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
-        <v>1.270749889259949</v>
+        <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483456</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644384</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177523</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412596</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323132</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141112</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039459</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172072</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225444</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.13234246735011</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118895</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
-        <v>1.129323738970204</v>
+        <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
         <v>0.01441689879536432</v>
@@ -34122,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H41" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I41" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J41" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K41" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L41" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M41" t="n">
         <v>103.4642265438474</v>
@@ -34146,16 +34146,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O41" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P41" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R41" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S41" t="n">
         <v>13.4271557515988</v>
@@ -34164,7 +34164,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H42" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I42" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J42" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K42" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L42" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M42" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N42" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O42" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P42" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R42" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S42" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T42" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,40 +34283,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H43" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I43" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J43" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K43" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L43" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M43" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N43" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O43" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P43" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R43" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S43" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T43" t="n">
         <v>1.129323738970203</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>43.28534947792182</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>231.276337811895</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
         <v>179.0082576726433</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
@@ -35500,13 +35500,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
         <v>66.88568574354744</v>
@@ -35582,10 +35582,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.0611576216797</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726433</v>
@@ -35655,7 +35655,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M14" t="n">
-        <v>322.6315268094072</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N14" t="n">
         <v>313.0722467132387</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680308</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696148</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K15" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461245</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969024</v>
+        <v>14.50290175900908</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>179.7282553970214</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
         <v>110.3391532330937</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243109</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L16" t="n">
         <v>66.88568574354744</v>
       </c>
       <c r="M16" t="n">
-        <v>81.0156412832517</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
         <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576039</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167969</v>
+        <v>38.0611576216797</v>
       </c>
       <c r="K17" t="n">
         <v>179.0082576726433</v>
@@ -35892,7 +35892,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M17" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N17" t="n">
         <v>313.0722467132387</v>
@@ -35904,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680308</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>14.50290175900908</v>
+        <v>331.4139538013791</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -35983,7 +35983,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,19 +36044,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243109</v>
       </c>
       <c r="L19" t="n">
         <v>66.88568574354744</v>
       </c>
       <c r="M19" t="n">
-        <v>81.01564128325168</v>
+        <v>81.0156412832517</v>
       </c>
       <c r="N19" t="n">
         <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576039</v>
       </c>
       <c r="P19" t="n">
         <v>29.24562952714792</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167971</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L20" t="n">
-        <v>274.8802469209099</v>
+        <v>274.8802469209098</v>
       </c>
       <c r="M20" t="n">
-        <v>322.6315268094072</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N20" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O20" t="n">
-        <v>249.9811662707764</v>
+        <v>249.9811662707763</v>
       </c>
       <c r="P20" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680309</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461245</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969024</v>
+        <v>331.4139538013793</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>170.3630375661007</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243112</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354746</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M22" t="n">
-        <v>81.01564128325171</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962319</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576039</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714793</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969024</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36457,7 +36457,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>48.87891772828636</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
@@ -36685,16 +36685,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>43.54219004597032</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175073</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>398.571999040688</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>226.4115282506011</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
@@ -37165,7 +37165,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L36" t="n">
-        <v>154.1911319698549</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>398.571999040688</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37633,7 +37633,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>14.50290175900908</v>
+        <v>302.3746655144176</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37642,7 +37642,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
@@ -37800,7 +37800,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
         <v>177.5326105223149</v>
@@ -37870,13 +37870,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>153.881343279064</v>
+        <v>369.5327107537265</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.690655761624</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L43" t="n">
         <v>66.88568574354744</v>
@@ -37952,10 +37952,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O43" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P43" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680266</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>116.0723750175072</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144174</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
@@ -38116,7 +38116,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
